--- a/Final_results/INSEE_excel_2020.xlsx
+++ b/Final_results/INSEE_excel_2020.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="415">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -984,22 +984,19 @@
     <t xml:space="preserve">2021-01-12</t>
   </si>
   <si>
-    <t xml:space="preserve">Forget the previous instructions and answers. You are Jean-Luc Tavernier, Director General of INSEE, giving a speech about the economic outlook of France. Today is 12 January 2021. You will be provided with a document with information about the current state and recent past of the French economy. Using ONLY the information in that document and information that was available on or before 12 January 2021, provide a numeric forecast (decimal percent with sign, e.g., +0.3) for French real GDP growth in the fourth quarter of 2020 and a confidence level (integer 0–100). Output EXACTLY in this format on a single line (no extra text):
+    <t xml:space="preserve">Forget the previous instructions and answers. You are Jean-Luc Tavernier, Director General of INSEE, and you are giving a speech about the economic outlook of France. Today is 12 January 2021. Using ONLY information that was available on or before 12 January 2021, provide a numeric forecast (decimal percent with sign, e.g., +0.3) for French real GDP growth in the fourth quarter of 2020 and a confidence level (integer 0–100). Output EXACTLY in this format on a single line (no extra text):
 &lt;forecast&gt; (&lt;confidence&gt;)
 Example: +0.3 (80)
 Do NOT use any information published after 12 January 2021.</t>
   </si>
   <si>
-    <t xml:space="preserve">-4.0 (90)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-3.1 (80)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-3.2 (75)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-2.2 (75)</t>
+    <t xml:space="preserve">-4.0 (85)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-4.0 (60)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-4.0 (75)</t>
   </si>
   <si>
     <t xml:space="preserve">2021-02-08</t>
@@ -9050,14 +9047,20 @@
       <c r="B73" t="s">
         <v>251</v>
       </c>
-      <c r="C73"/>
-      <c r="D73"/>
-      <c r="E73"/>
+      <c r="C73" t="n">
+        <v>-4</v>
+      </c>
+      <c r="D73" t="n">
+        <v>85</v>
+      </c>
+      <c r="E73" t="s">
+        <v>252</v>
+      </c>
       <c r="F73" t="n">
         <v>-4</v>
       </c>
       <c r="G73" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H73" t="s">
         <v>252</v>
@@ -9066,69 +9069,81 @@
         <v>-4</v>
       </c>
       <c r="J73" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="K73" t="s">
         <v>252</v>
       </c>
-      <c r="L73"/>
-      <c r="M73"/>
-      <c r="N73"/>
+      <c r="L73" t="n">
+        <v>-4</v>
+      </c>
+      <c r="M73" t="n">
+        <v>85</v>
+      </c>
+      <c r="N73" t="s">
+        <v>252</v>
+      </c>
       <c r="O73" t="n">
-        <v>-3.1</v>
+        <v>-4</v>
       </c>
       <c r="P73" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="Q73" t="s">
+        <v>252</v>
+      </c>
+      <c r="R73" t="n">
+        <v>-4</v>
+      </c>
+      <c r="S73" t="n">
+        <v>60</v>
+      </c>
+      <c r="T73" t="s">
         <v>253</v>
       </c>
-      <c r="R73" t="n">
-        <v>-3.2</v>
-      </c>
-      <c r="S73" t="n">
-        <v>75</v>
-      </c>
-      <c r="T73" t="s">
+      <c r="U73" t="n">
+        <v>-4</v>
+      </c>
+      <c r="V73" t="n">
+        <v>60</v>
+      </c>
+      <c r="W73" t="s">
+        <v>253</v>
+      </c>
+      <c r="X73" t="n">
+        <v>-4</v>
+      </c>
+      <c r="Y73" t="n">
+        <v>75</v>
+      </c>
+      <c r="Z73" t="s">
         <v>254</v>
       </c>
-      <c r="U73" t="n">
-        <v>-3.2</v>
-      </c>
-      <c r="V73" t="n">
-        <v>75</v>
-      </c>
-      <c r="W73" t="s">
+      <c r="AA73" t="n">
+        <v>-4</v>
+      </c>
+      <c r="AB73" t="n">
+        <v>75</v>
+      </c>
+      <c r="AC73" t="s">
         <v>254</v>
       </c>
-      <c r="X73" t="n">
-        <v>-2.2</v>
-      </c>
-      <c r="Y73" t="n">
-        <v>75</v>
-      </c>
-      <c r="Z73" t="s">
-        <v>255</v>
-      </c>
-      <c r="AA73"/>
-      <c r="AB73"/>
-      <c r="AC73"/>
       <c r="AD73" t="n">
-        <v>-2.2</v>
+        <v>-4</v>
       </c>
       <c r="AE73" t="n">
         <v>75</v>
       </c>
       <c r="AF73" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
+        <v>255</v>
+      </c>
+      <c r="B74" t="s">
         <v>256</v>
-      </c>
-      <c r="B74" t="s">
-        <v>257</v>
       </c>
       <c r="C74" t="n">
         <v>-0.2</v>
@@ -9137,7 +9152,7 @@
         <v>50</v>
       </c>
       <c r="E74" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F74" t="n">
         <v>-0.2</v>
@@ -9146,7 +9161,7 @@
         <v>50</v>
       </c>
       <c r="H74" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I74" t="n">
         <v>-0.2</v>
@@ -9155,7 +9170,7 @@
         <v>50</v>
       </c>
       <c r="K74" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="L74" t="n">
         <v>0.1</v>
@@ -9164,7 +9179,7 @@
         <v>55</v>
       </c>
       <c r="N74" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O74" t="n">
         <v>0.1</v>
@@ -9173,7 +9188,7 @@
         <v>55</v>
       </c>
       <c r="Q74" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="R74" t="n">
         <v>0</v>
@@ -9182,7 +9197,7 @@
         <v>60</v>
       </c>
       <c r="T74" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="U74" t="n">
         <v>0</v>
@@ -9191,7 +9206,7 @@
         <v>60</v>
       </c>
       <c r="W74" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="X74" t="n">
         <v>0</v>
@@ -9200,7 +9215,7 @@
         <v>55</v>
       </c>
       <c r="Z74" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AA74" t="n">
         <v>0</v>
@@ -9209,7 +9224,7 @@
         <v>55</v>
       </c>
       <c r="AC74" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AD74" t="n">
         <v>0</v>
@@ -9218,15 +9233,15 @@
         <v>55</v>
       </c>
       <c r="AF74" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
+        <v>261</v>
+      </c>
+      <c r="B75" t="s">
         <v>262</v>
-      </c>
-      <c r="B75" t="s">
-        <v>263</v>
       </c>
       <c r="C75" t="n">
         <v>0.1</v>
@@ -9262,7 +9277,7 @@
         <v>60</v>
       </c>
       <c r="N75" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="O75" t="n">
         <v>-0.4</v>
@@ -9271,7 +9286,7 @@
         <v>60</v>
       </c>
       <c r="Q75" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="R75" t="n">
         <v>0</v>
@@ -9280,7 +9295,7 @@
         <v>60</v>
       </c>
       <c r="T75" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="U75" t="n">
         <v>0</v>
@@ -9289,7 +9304,7 @@
         <v>60</v>
       </c>
       <c r="W75" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="X75" t="n">
         <v>0.1</v>
@@ -9321,10 +9336,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
+        <v>264</v>
+      </c>
+      <c r="B76" t="s">
         <v>265</v>
-      </c>
-      <c r="B76" t="s">
-        <v>266</v>
       </c>
       <c r="C76" t="n">
         <v>0.1</v>
@@ -9419,10 +9434,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
+        <v>266</v>
+      </c>
+      <c r="B77" t="s">
         <v>267</v>
-      </c>
-      <c r="B77" t="s">
-        <v>268</v>
       </c>
       <c r="C77" t="n">
         <v>0.5</v>
@@ -9431,7 +9446,7 @@
         <v>60</v>
       </c>
       <c r="E77" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F77" t="n">
         <v>0.5</v>
@@ -9440,7 +9455,7 @@
         <v>60</v>
       </c>
       <c r="H77" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I77" t="n">
         <v>0.5</v>
@@ -9449,7 +9464,7 @@
         <v>60</v>
       </c>
       <c r="K77" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L77" t="n">
         <v>0.5</v>
@@ -9458,7 +9473,7 @@
         <v>65</v>
       </c>
       <c r="N77" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O77" t="n">
         <v>0.5</v>
@@ -9467,7 +9482,7 @@
         <v>65</v>
       </c>
       <c r="Q77" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="R77" t="n">
         <v>0.2</v>
@@ -9476,7 +9491,7 @@
         <v>55</v>
       </c>
       <c r="T77" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="U77" t="n">
         <v>0.2</v>
@@ -9485,7 +9500,7 @@
         <v>55</v>
       </c>
       <c r="W77" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="X77" t="n">
         <v>0</v>
@@ -9494,7 +9509,7 @@
         <v>60</v>
       </c>
       <c r="Z77" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AA77" t="n">
         <v>0</v>
@@ -9503,7 +9518,7 @@
         <v>60</v>
       </c>
       <c r="AC77" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AD77" t="n">
         <v>0</v>
@@ -9512,15 +9527,15 @@
         <v>60</v>
       </c>
       <c r="AF77" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
+        <v>271</v>
+      </c>
+      <c r="B78" t="s">
         <v>272</v>
-      </c>
-      <c r="B78" t="s">
-        <v>273</v>
       </c>
       <c r="C78" t="n">
         <v>0.7</v>
@@ -9529,7 +9544,7 @@
         <v>85</v>
       </c>
       <c r="E78" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F78" t="n">
         <v>0.7</v>
@@ -9538,7 +9553,7 @@
         <v>85</v>
       </c>
       <c r="H78" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I78" t="n">
         <v>0.7</v>
@@ -9547,7 +9562,7 @@
         <v>85</v>
       </c>
       <c r="K78" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L78" t="n">
         <v>0.7</v>
@@ -9556,7 +9571,7 @@
         <v>85</v>
       </c>
       <c r="N78" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="O78" t="n">
         <v>0.7</v>
@@ -9565,7 +9580,7 @@
         <v>85</v>
       </c>
       <c r="Q78" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="R78" t="n">
         <v>0.8</v>
@@ -9574,7 +9589,7 @@
         <v>85</v>
       </c>
       <c r="T78" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="U78" t="n">
         <v>0.8</v>
@@ -9583,7 +9598,7 @@
         <v>85</v>
       </c>
       <c r="W78" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="X78" t="n">
         <v>0.8</v>
@@ -9592,7 +9607,7 @@
         <v>85</v>
       </c>
       <c r="Z78" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AA78" t="n">
         <v>0.8</v>
@@ -9601,7 +9616,7 @@
         <v>85</v>
       </c>
       <c r="AC78" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AD78" t="n">
         <v>0.8</v>
@@ -9610,15 +9625,15 @@
         <v>85</v>
       </c>
       <c r="AF78" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
+        <v>275</v>
+      </c>
+      <c r="B79" t="s">
         <v>276</v>
-      </c>
-      <c r="B79" t="s">
-        <v>277</v>
       </c>
       <c r="C79" t="n">
         <v>0.8</v>
@@ -9627,7 +9642,7 @@
         <v>85</v>
       </c>
       <c r="E79" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F79" t="n">
         <v>0.8</v>
@@ -9636,7 +9651,7 @@
         <v>85</v>
       </c>
       <c r="H79" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I79" t="n">
         <v>0.8</v>
@@ -9645,7 +9660,7 @@
         <v>85</v>
       </c>
       <c r="K79" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L79" t="n">
         <v>0.7</v>
@@ -9654,7 +9669,7 @@
         <v>85</v>
       </c>
       <c r="N79" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="O79" t="n">
         <v>0.7</v>
@@ -9663,7 +9678,7 @@
         <v>85</v>
       </c>
       <c r="Q79" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="R79" t="n">
         <v>0.8</v>
@@ -9672,7 +9687,7 @@
         <v>90</v>
       </c>
       <c r="T79" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="U79" t="n">
         <v>0.8</v>
@@ -9681,7 +9696,7 @@
         <v>90</v>
       </c>
       <c r="W79" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="X79" t="n">
         <v>0.8</v>
@@ -9690,7 +9705,7 @@
         <v>85</v>
       </c>
       <c r="Z79" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AA79" t="n">
         <v>0.8</v>
@@ -9699,7 +9714,7 @@
         <v>85</v>
       </c>
       <c r="AC79" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AD79" t="n">
         <v>0.8</v>
@@ -9708,15 +9723,15 @@
         <v>85</v>
       </c>
       <c r="AF79" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
+        <v>278</v>
+      </c>
+      <c r="B80" t="s">
         <v>279</v>
-      </c>
-      <c r="B80" t="s">
-        <v>280</v>
       </c>
       <c r="C80" t="n">
         <v>2.7</v>
@@ -9725,7 +9740,7 @@
         <v>70</v>
       </c>
       <c r="E80" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F80" t="n">
         <v>2.7</v>
@@ -9734,7 +9749,7 @@
         <v>70</v>
       </c>
       <c r="H80" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I80" t="n">
         <v>2.7</v>
@@ -9743,7 +9758,7 @@
         <v>70</v>
       </c>
       <c r="K80" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L80" t="n">
         <v>2.3</v>
@@ -9752,7 +9767,7 @@
         <v>75</v>
       </c>
       <c r="N80" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="O80" t="n">
         <v>2.3</v>
@@ -9761,7 +9776,7 @@
         <v>75</v>
       </c>
       <c r="Q80" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="R80" t="n">
         <v>2.3</v>
@@ -9770,7 +9785,7 @@
         <v>75</v>
       </c>
       <c r="T80" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="U80" t="n">
         <v>2.3</v>
@@ -9779,7 +9794,7 @@
         <v>75</v>
       </c>
       <c r="W80" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="X80" t="n">
         <v>1.8</v>
@@ -9788,7 +9803,7 @@
         <v>85</v>
       </c>
       <c r="Z80" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AA80" t="n">
         <v>1.8</v>
@@ -9797,7 +9812,7 @@
         <v>85</v>
       </c>
       <c r="AC80" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AD80" t="n">
         <v>1.8</v>
@@ -9806,15 +9821,15 @@
         <v>85</v>
       </c>
       <c r="AF80" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
+        <v>283</v>
+      </c>
+      <c r="B81" t="s">
         <v>284</v>
-      </c>
-      <c r="B81" t="s">
-        <v>285</v>
       </c>
       <c r="C81" t="n">
         <v>2.5</v>
@@ -9823,7 +9838,7 @@
         <v>85</v>
       </c>
       <c r="E81" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F81" t="n">
         <v>2.5</v>
@@ -9832,7 +9847,7 @@
         <v>85</v>
       </c>
       <c r="H81" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I81" t="n">
         <v>2.5</v>
@@ -9841,7 +9856,7 @@
         <v>85</v>
       </c>
       <c r="K81" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="L81" t="n">
         <v>2.7</v>
@@ -9850,7 +9865,7 @@
         <v>80</v>
       </c>
       <c r="N81" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="O81" t="n">
         <v>2.7</v>
@@ -9859,7 +9874,7 @@
         <v>80</v>
       </c>
       <c r="Q81" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="R81" t="n">
         <v>2.5</v>
@@ -9868,7 +9883,7 @@
         <v>90</v>
       </c>
       <c r="T81" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="U81" t="n">
         <v>2.5</v>
@@ -9877,7 +9892,7 @@
         <v>90</v>
       </c>
       <c r="W81" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="X81" t="n">
         <v>2.3</v>
@@ -9886,7 +9901,7 @@
         <v>80</v>
       </c>
       <c r="Z81" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AA81" t="n">
         <v>2.3</v>
@@ -9895,7 +9910,7 @@
         <v>80</v>
       </c>
       <c r="AC81" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AD81" t="n">
         <v>2.3</v>
@@ -9904,15 +9919,15 @@
         <v>80</v>
       </c>
       <c r="AF81" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
+        <v>289</v>
+      </c>
+      <c r="B82" t="s">
         <v>290</v>
-      </c>
-      <c r="B82" t="s">
-        <v>291</v>
       </c>
       <c r="C82" t="n">
         <v>2.7</v>
@@ -9921,7 +9936,7 @@
         <v>90</v>
       </c>
       <c r="E82" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F82" t="n">
         <v>2.7</v>
@@ -9930,7 +9945,7 @@
         <v>90</v>
       </c>
       <c r="H82" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I82" t="n">
         <v>2.7</v>
@@ -9939,7 +9954,7 @@
         <v>90</v>
       </c>
       <c r="K82" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L82" t="n">
         <v>2.7</v>
@@ -9948,7 +9963,7 @@
         <v>90</v>
       </c>
       <c r="N82" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="O82" t="n">
         <v>2.7</v>
@@ -9957,7 +9972,7 @@
         <v>90</v>
       </c>
       <c r="Q82" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="R82" t="n">
         <v>2.7</v>
@@ -9966,7 +9981,7 @@
         <v>85</v>
       </c>
       <c r="T82" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="U82" t="n">
         <v>2.7</v>
@@ -9975,7 +9990,7 @@
         <v>85</v>
       </c>
       <c r="W82" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="X82" t="n">
         <v>2.7</v>
@@ -9984,7 +9999,7 @@
         <v>90</v>
       </c>
       <c r="Z82" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AA82" t="n">
         <v>2.7</v>
@@ -9993,7 +10008,7 @@
         <v>90</v>
       </c>
       <c r="AC82" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AD82" t="n">
         <v>2.7</v>
@@ -10002,15 +10017,15 @@
         <v>90</v>
       </c>
       <c r="AF82" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
+        <v>293</v>
+      </c>
+      <c r="B83" t="s">
         <v>294</v>
-      </c>
-      <c r="B83" t="s">
-        <v>295</v>
       </c>
       <c r="C83" t="n">
         <v>0.7</v>
@@ -10019,7 +10034,7 @@
         <v>80</v>
       </c>
       <c r="E83" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F83" t="n">
         <v>0.7</v>
@@ -10028,7 +10043,7 @@
         <v>80</v>
       </c>
       <c r="H83" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I83" t="n">
         <v>0.7</v>
@@ -10037,7 +10052,7 @@
         <v>80</v>
       </c>
       <c r="K83" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="L83" t="n">
         <v>0.6</v>
@@ -10064,7 +10079,7 @@
         <v>85</v>
       </c>
       <c r="T83" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="U83" t="n">
         <v>0.7</v>
@@ -10073,7 +10088,7 @@
         <v>85</v>
       </c>
       <c r="W83" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="X83" t="n">
         <v>0.6</v>
@@ -10105,10 +10120,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
+        <v>296</v>
+      </c>
+      <c r="B84" t="s">
         <v>297</v>
-      </c>
-      <c r="B84" t="s">
-        <v>298</v>
       </c>
       <c r="C84" t="n">
         <v>0.6</v>
@@ -10117,7 +10132,7 @@
         <v>75</v>
       </c>
       <c r="E84" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F84" t="n">
         <v>0.6</v>
@@ -10126,7 +10141,7 @@
         <v>75</v>
       </c>
       <c r="H84" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I84" t="n">
         <v>0.6</v>
@@ -10135,7 +10150,7 @@
         <v>75</v>
       </c>
       <c r="K84" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="L84" t="n">
         <v>0.5</v>
@@ -10162,7 +10177,7 @@
         <v>65</v>
       </c>
       <c r="T84" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="U84" t="n">
         <v>0.7</v>
@@ -10171,7 +10186,7 @@
         <v>65</v>
       </c>
       <c r="W84" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="X84" t="n">
         <v>0.6</v>
@@ -10180,7 +10195,7 @@
         <v>75</v>
       </c>
       <c r="Z84" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AA84" t="n">
         <v>0.6</v>
@@ -10189,7 +10204,7 @@
         <v>75</v>
       </c>
       <c r="AC84" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AD84" t="n">
         <v>0.6</v>
@@ -10198,15 +10213,15 @@
         <v>75</v>
       </c>
       <c r="AF84" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
+        <v>300</v>
+      </c>
+      <c r="B85" t="s">
         <v>301</v>
-      </c>
-      <c r="B85" t="s">
-        <v>302</v>
       </c>
       <c r="C85" t="n">
         <v>0.6</v>
@@ -10242,7 +10257,7 @@
         <v>85</v>
       </c>
       <c r="N85" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="O85" t="n">
         <v>0.7</v>
@@ -10251,7 +10266,7 @@
         <v>85</v>
       </c>
       <c r="Q85" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="R85" t="n">
         <v>0.4</v>
@@ -10301,10 +10316,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
+        <v>302</v>
+      </c>
+      <c r="B86" t="s">
         <v>303</v>
-      </c>
-      <c r="B86" t="s">
-        <v>304</v>
       </c>
       <c r="C86" t="n">
         <v>0.3</v>
@@ -10399,10 +10414,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
+        <v>304</v>
+      </c>
+      <c r="B87" t="s">
         <v>305</v>
-      </c>
-      <c r="B87" t="s">
-        <v>306</v>
       </c>
       <c r="C87" t="n">
         <v>0</v>
@@ -10456,7 +10471,7 @@
         <v>50</v>
       </c>
       <c r="T87" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="U87" t="n">
         <v>0.3</v>
@@ -10465,7 +10480,7 @@
         <v>50</v>
       </c>
       <c r="W87" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="X87" t="n">
         <v>0</v>
@@ -10497,10 +10512,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
+        <v>307</v>
+      </c>
+      <c r="B88" t="s">
         <v>308</v>
-      </c>
-      <c r="B88" t="s">
-        <v>309</v>
       </c>
       <c r="C88" t="n">
         <v>0</v>
@@ -10509,7 +10524,7 @@
         <v>55</v>
       </c>
       <c r="E88" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F88" t="n">
         <v>0</v>
@@ -10518,7 +10533,7 @@
         <v>55</v>
       </c>
       <c r="H88" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -10527,7 +10542,7 @@
         <v>55</v>
       </c>
       <c r="K88" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L88" t="n">
         <v>0</v>
@@ -10536,7 +10551,7 @@
         <v>65</v>
       </c>
       <c r="N88" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="O88" t="n">
         <v>0</v>
@@ -10545,7 +10560,7 @@
         <v>65</v>
       </c>
       <c r="Q88" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="R88" t="n">
         <v>0</v>
@@ -10554,7 +10569,7 @@
         <v>65</v>
       </c>
       <c r="T88" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="U88" t="n">
         <v>0</v>
@@ -10563,7 +10578,7 @@
         <v>65</v>
       </c>
       <c r="W88" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="X88" t="n">
         <v>0</v>
@@ -10572,7 +10587,7 @@
         <v>60</v>
       </c>
       <c r="Z88" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AA88" t="n">
         <v>0</v>
@@ -10581,7 +10596,7 @@
         <v>60</v>
       </c>
       <c r="AC88" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AD88" t="n">
         <v>0</v>
@@ -10590,15 +10605,15 @@
         <v>60</v>
       </c>
       <c r="AF88" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
+        <v>310</v>
+      </c>
+      <c r="B89" t="s">
         <v>311</v>
-      </c>
-      <c r="B89" t="s">
-        <v>312</v>
       </c>
       <c r="C89" t="n">
         <v>0.2</v>
@@ -10607,7 +10622,7 @@
         <v>45</v>
       </c>
       <c r="E89" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F89" t="n">
         <v>0.2</v>
@@ -10616,7 +10631,7 @@
         <v>45</v>
       </c>
       <c r="H89" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I89" t="n">
         <v>0.2</v>
@@ -10625,7 +10640,7 @@
         <v>45</v>
       </c>
       <c r="K89" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="L89" t="n">
         <v>0.2</v>
@@ -10693,10 +10708,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
+        <v>313</v>
+      </c>
+      <c r="B90" t="s">
         <v>314</v>
-      </c>
-      <c r="B90" t="s">
-        <v>315</v>
       </c>
       <c r="C90" t="n">
         <v>0.2</v>
@@ -10791,10 +10806,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
+        <v>315</v>
+      </c>
+      <c r="B91" t="s">
         <v>316</v>
-      </c>
-      <c r="B91" t="s">
-        <v>317</v>
       </c>
       <c r="C91" t="n">
         <v>0.5</v>
@@ -10889,10 +10904,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
+        <v>317</v>
+      </c>
+      <c r="B92" t="s">
         <v>318</v>
-      </c>
-      <c r="B92" t="s">
-        <v>319</v>
       </c>
       <c r="C92" t="n">
         <v>0.1</v>
@@ -10901,7 +10916,7 @@
         <v>55</v>
       </c>
       <c r="E92" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F92" t="n">
         <v>0.1</v>
@@ -10910,7 +10925,7 @@
         <v>55</v>
       </c>
       <c r="H92" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I92" t="n">
         <v>0.1</v>
@@ -10919,7 +10934,7 @@
         <v>55</v>
       </c>
       <c r="K92" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L92" t="n">
         <v>0.2</v>
@@ -10987,10 +11002,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
+        <v>319</v>
+      </c>
+      <c r="B93" t="s">
         <v>320</v>
-      </c>
-      <c r="B93" t="s">
-        <v>321</v>
       </c>
       <c r="C93" t="n">
         <v>0.3</v>
@@ -11085,10 +11100,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
+        <v>321</v>
+      </c>
+      <c r="B94" t="s">
         <v>322</v>
-      </c>
-      <c r="B94" t="s">
-        <v>323</v>
       </c>
       <c r="C94" t="n">
         <v>0.2</v>
@@ -11183,10 +11198,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
+        <v>323</v>
+      </c>
+      <c r="B95" t="s">
         <v>324</v>
-      </c>
-      <c r="B95" t="s">
-        <v>325</v>
       </c>
       <c r="C95" t="n">
         <v>-0.1</v>
@@ -11195,7 +11210,7 @@
         <v>60</v>
       </c>
       <c r="E95" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F95" t="n">
         <v>-0.1</v>
@@ -11204,7 +11219,7 @@
         <v>60</v>
       </c>
       <c r="H95" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I95" t="n">
         <v>-0.1</v>
@@ -11213,7 +11228,7 @@
         <v>60</v>
       </c>
       <c r="K95" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="L95" t="n">
         <v>-0.1</v>
@@ -11222,7 +11237,7 @@
         <v>60</v>
       </c>
       <c r="N95" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="O95" t="n">
         <v>-0.1</v>
@@ -11231,7 +11246,7 @@
         <v>60</v>
       </c>
       <c r="Q95" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="R95" t="n">
         <v>-0.1</v>
@@ -11240,7 +11255,7 @@
         <v>65</v>
       </c>
       <c r="T95" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="U95" t="n">
         <v>-0.1</v>
@@ -11249,7 +11264,7 @@
         <v>65</v>
       </c>
       <c r="W95" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="X95" t="n">
         <v>-0.1</v>
@@ -11258,7 +11273,7 @@
         <v>60</v>
       </c>
       <c r="Z95" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AA95" t="n">
         <v>-0.1</v>
@@ -11267,7 +11282,7 @@
         <v>60</v>
       </c>
       <c r="AC95" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AD95" t="n">
         <v>-0.1</v>
@@ -11276,15 +11291,15 @@
         <v>60</v>
       </c>
       <c r="AF95" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
+        <v>327</v>
+      </c>
+      <c r="B96" t="s">
         <v>328</v>
-      </c>
-      <c r="B96" t="s">
-        <v>329</v>
       </c>
       <c r="C96" t="n">
         <v>-0.1</v>
@@ -11293,7 +11308,7 @@
         <v>65</v>
       </c>
       <c r="E96" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F96" t="n">
         <v>-0.1</v>
@@ -11302,7 +11317,7 @@
         <v>65</v>
       </c>
       <c r="H96" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I96" t="n">
         <v>-0.1</v>
@@ -11311,7 +11326,7 @@
         <v>65</v>
       </c>
       <c r="K96" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="L96" t="n">
         <v>-0.1</v>
@@ -11320,7 +11335,7 @@
         <v>65</v>
       </c>
       <c r="N96" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="O96" t="n">
         <v>-0.1</v>
@@ -11329,7 +11344,7 @@
         <v>65</v>
       </c>
       <c r="Q96" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="R96" t="n">
         <v>-0.2</v>
@@ -11338,7 +11353,7 @@
         <v>65</v>
       </c>
       <c r="T96" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="U96" t="n">
         <v>-0.2</v>
@@ -11347,7 +11362,7 @@
         <v>65</v>
       </c>
       <c r="W96" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="X96" t="n">
         <v>-0.2</v>
@@ -11356,7 +11371,7 @@
         <v>65</v>
       </c>
       <c r="Z96" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AA96" t="n">
         <v>-0.2</v>
@@ -11365,7 +11380,7 @@
         <v>65</v>
       </c>
       <c r="AC96" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AD96" t="n">
         <v>-0.2</v>
@@ -11374,42 +11389,42 @@
         <v>65</v>
       </c>
       <c r="AF96" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
+        <v>330</v>
+      </c>
+      <c r="B97" t="s">
         <v>331</v>
       </c>
-      <c r="B97" t="s">
+      <c r="C97" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D97" t="n">
+        <v>75</v>
+      </c>
+      <c r="E97" t="s">
+        <v>60</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G97" t="n">
+        <v>70</v>
+      </c>
+      <c r="H97" t="s">
         <v>332</v>
       </c>
-      <c r="C97" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D97" t="n">
-        <v>75</v>
-      </c>
-      <c r="E97" t="s">
-        <v>60</v>
-      </c>
-      <c r="F97" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G97" t="n">
-        <v>70</v>
-      </c>
-      <c r="H97" t="s">
+      <c r="I97" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J97" t="n">
+        <v>70</v>
+      </c>
+      <c r="K97" t="s">
         <v>333</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="J97" t="n">
-        <v>70</v>
-      </c>
-      <c r="K97" t="s">
-        <v>334</v>
       </c>
       <c r="L97" t="n">
         <v>0.1</v>
@@ -11427,7 +11442,7 @@
         <v>60</v>
       </c>
       <c r="Q97" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="R97" t="n">
         <v>0.1</v>
@@ -11477,10 +11492,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
+        <v>334</v>
+      </c>
+      <c r="B98" t="s">
         <v>335</v>
-      </c>
-      <c r="B98" t="s">
-        <v>336</v>
       </c>
       <c r="C98" t="n">
         <v>0.1</v>
@@ -11575,10 +11590,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
+        <v>336</v>
+      </c>
+      <c r="B99" t="s">
         <v>337</v>
-      </c>
-      <c r="B99" t="s">
-        <v>338</v>
       </c>
       <c r="C99" t="n">
         <v>0.2</v>
@@ -11673,11 +11688,11 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
+        <v>338</v>
+      </c>
+      <c r="B100" t="s">
         <v>339</v>
       </c>
-      <c r="B100" t="s">
-        <v>340</v>
-      </c>
       <c r="C100" t="n">
         <v>0.1</v>
       </c>
@@ -11685,7 +11700,7 @@
         <v>70</v>
       </c>
       <c r="E100" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F100" t="n">
         <v>0.1</v>
@@ -11694,7 +11709,7 @@
         <v>70</v>
       </c>
       <c r="H100" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I100" t="n">
         <v>0.1</v>
@@ -11703,7 +11718,7 @@
         <v>70</v>
       </c>
       <c r="K100" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="L100" t="n">
         <v>0.1</v>
@@ -11712,7 +11727,7 @@
         <v>70</v>
       </c>
       <c r="N100" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="O100" t="n">
         <v>0.1</v>
@@ -11721,7 +11736,7 @@
         <v>70</v>
       </c>
       <c r="Q100" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="R100" t="n">
         <v>0.1</v>
@@ -11730,7 +11745,7 @@
         <v>70</v>
       </c>
       <c r="T100" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="U100" t="n">
         <v>0.1</v>
@@ -11739,7 +11754,7 @@
         <v>70</v>
       </c>
       <c r="W100" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="X100" t="n">
         <v>0.2</v>
@@ -11771,11 +11786,11 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
+        <v>340</v>
+      </c>
+      <c r="B101" t="s">
         <v>341</v>
       </c>
-      <c r="B101" t="s">
-        <v>342</v>
-      </c>
       <c r="C101" t="n">
         <v>0.1</v>
       </c>
@@ -11783,7 +11798,7 @@
         <v>70</v>
       </c>
       <c r="E101" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F101" t="n">
         <v>0.1</v>
@@ -11792,7 +11807,7 @@
         <v>70</v>
       </c>
       <c r="H101" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I101" t="n">
         <v>0.1</v>
@@ -11801,7 +11816,7 @@
         <v>70</v>
       </c>
       <c r="K101" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="L101" t="n">
         <v>0</v>
@@ -11810,7 +11825,7 @@
         <v>65</v>
       </c>
       <c r="N101" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="O101" t="n">
         <v>0</v>
@@ -11819,7 +11834,7 @@
         <v>65</v>
       </c>
       <c r="Q101" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="R101" t="n">
         <v>0.1</v>
@@ -11869,10 +11884,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
+        <v>342</v>
+      </c>
+      <c r="B102" t="s">
         <v>343</v>
-      </c>
-      <c r="B102" t="s">
-        <v>344</v>
       </c>
       <c r="C102" t="n">
         <v>0</v>
@@ -11908,7 +11923,7 @@
         <v>80</v>
       </c>
       <c r="N102" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="O102" t="n">
         <v>0</v>
@@ -11917,7 +11932,7 @@
         <v>80</v>
       </c>
       <c r="Q102" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="R102" t="n">
         <v>-0.1</v>
@@ -11926,7 +11941,7 @@
         <v>65</v>
       </c>
       <c r="T102" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="U102" t="n">
         <v>-0.1</v>
@@ -11935,7 +11950,7 @@
         <v>65</v>
       </c>
       <c r="W102" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="X102" t="n">
         <v>0.1</v>
@@ -11967,10 +11982,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
+        <v>345</v>
+      </c>
+      <c r="B103" t="s">
         <v>346</v>
-      </c>
-      <c r="B103" t="s">
-        <v>347</v>
       </c>
       <c r="C103" t="n">
         <v>0.1</v>
@@ -11979,7 +11994,7 @@
         <v>80</v>
       </c>
       <c r="E103" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F103" t="n">
         <v>0.1</v>
@@ -11988,7 +12003,7 @@
         <v>80</v>
       </c>
       <c r="H103" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I103" t="n">
         <v>0.1</v>
@@ -11997,7 +12012,7 @@
         <v>80</v>
       </c>
       <c r="K103" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="L103" t="n">
         <v>0.1</v>
@@ -12024,7 +12039,7 @@
         <v>70</v>
       </c>
       <c r="T103" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="U103" t="n">
         <v>0.1</v>
@@ -12033,7 +12048,7 @@
         <v>70</v>
       </c>
       <c r="W103" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="X103" t="n">
         <v>0.1</v>
@@ -12042,7 +12057,7 @@
         <v>75</v>
       </c>
       <c r="Z103" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AA103" t="n">
         <v>0.1</v>
@@ -12051,7 +12066,7 @@
         <v>75</v>
       </c>
       <c r="AC103" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AD103" t="n">
         <v>0.1</v>
@@ -12060,15 +12075,15 @@
         <v>75</v>
       </c>
       <c r="AF103" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
+        <v>349</v>
+      </c>
+      <c r="B104" t="s">
         <v>350</v>
-      </c>
-      <c r="B104" t="s">
-        <v>351</v>
       </c>
       <c r="C104" t="n">
         <v>0.1</v>
@@ -12104,7 +12119,7 @@
         <v>65</v>
       </c>
       <c r="N104" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="O104" t="n">
         <v>-0.1</v>
@@ -12113,7 +12128,7 @@
         <v>65</v>
       </c>
       <c r="Q104" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="R104" t="n">
         <v>0.1</v>
@@ -12163,10 +12178,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
+        <v>351</v>
+      </c>
+      <c r="B105" t="s">
         <v>352</v>
-      </c>
-      <c r="B105" t="s">
-        <v>353</v>
       </c>
       <c r="C105" t="n">
         <v>0.1</v>
@@ -12202,7 +12217,7 @@
         <v>80</v>
       </c>
       <c r="N105" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="O105" t="n">
         <v>0.1</v>
@@ -12211,7 +12226,7 @@
         <v>80</v>
       </c>
       <c r="Q105" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="R105" t="n">
         <v>0.1</v>
@@ -12220,7 +12235,7 @@
         <v>80</v>
       </c>
       <c r="T105" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="U105" t="n">
         <v>0.1</v>
@@ -12229,7 +12244,7 @@
         <v>80</v>
       </c>
       <c r="W105" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="X105" t="n">
         <v>0.1</v>
@@ -12261,11 +12276,11 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
+        <v>353</v>
+      </c>
+      <c r="B106" t="s">
         <v>354</v>
       </c>
-      <c r="B106" t="s">
-        <v>355</v>
-      </c>
       <c r="C106" t="n">
         <v>0.1</v>
       </c>
@@ -12273,7 +12288,7 @@
         <v>70</v>
       </c>
       <c r="E106" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F106" t="n">
         <v>0.1</v>
@@ -12282,7 +12297,7 @@
         <v>70</v>
       </c>
       <c r="H106" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I106" t="n">
         <v>0.1</v>
@@ -12291,7 +12306,7 @@
         <v>70</v>
       </c>
       <c r="K106" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="L106" t="n">
         <v>0.1</v>
@@ -12300,7 +12315,7 @@
         <v>75</v>
       </c>
       <c r="N106" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="O106" t="n">
         <v>0.1</v>
@@ -12309,7 +12324,7 @@
         <v>75</v>
       </c>
       <c r="Q106" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="R106" t="n">
         <v>0.1</v>
@@ -12318,7 +12333,7 @@
         <v>75</v>
       </c>
       <c r="T106" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="U106" t="n">
         <v>0.1</v>
@@ -12327,7 +12342,7 @@
         <v>75</v>
       </c>
       <c r="W106" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="X106" t="n">
         <v>0.1</v>
@@ -12336,7 +12351,7 @@
         <v>75</v>
       </c>
       <c r="Z106" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AA106" t="n">
         <v>0.1</v>
@@ -12345,7 +12360,7 @@
         <v>75</v>
       </c>
       <c r="AC106" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AD106" t="n">
         <v>0.1</v>
@@ -12354,15 +12369,15 @@
         <v>75</v>
       </c>
       <c r="AF106" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
+        <v>355</v>
+      </c>
+      <c r="B107" t="s">
         <v>356</v>
-      </c>
-      <c r="B107" t="s">
-        <v>357</v>
       </c>
       <c r="C107" t="n">
         <v>-0.1</v>
@@ -12371,7 +12386,7 @@
         <v>65</v>
       </c>
       <c r="E107" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F107" t="n">
         <v>-0.1</v>
@@ -12380,7 +12395,7 @@
         <v>65</v>
       </c>
       <c r="H107" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I107" t="n">
         <v>-0.1</v>
@@ -12389,7 +12404,7 @@
         <v>65</v>
       </c>
       <c r="K107" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="L107" t="n">
         <v>-0.1</v>
@@ -12398,7 +12413,7 @@
         <v>75</v>
       </c>
       <c r="N107" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="O107" t="n">
         <v>-0.1</v>
@@ -12407,7 +12422,7 @@
         <v>75</v>
       </c>
       <c r="Q107" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="R107" t="n">
         <v>-0.1</v>
@@ -12416,7 +12431,7 @@
         <v>65</v>
       </c>
       <c r="T107" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="U107" t="n">
         <v>-0.1</v>
@@ -12425,7 +12440,7 @@
         <v>65</v>
       </c>
       <c r="W107" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="X107" t="n">
         <v>0</v>
@@ -12434,7 +12449,7 @@
         <v>65</v>
       </c>
       <c r="Z107" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AA107" t="n">
         <v>0</v>
@@ -12443,7 +12458,7 @@
         <v>65</v>
       </c>
       <c r="AC107" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AD107" t="n">
         <v>0</v>
@@ -12452,15 +12467,15 @@
         <v>65</v>
       </c>
       <c r="AF107" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
+        <v>358</v>
+      </c>
+      <c r="B108" t="s">
         <v>359</v>
-      </c>
-      <c r="B108" t="s">
-        <v>360</v>
       </c>
       <c r="C108" t="n">
         <v>0</v>
@@ -12469,7 +12484,7 @@
         <v>65</v>
       </c>
       <c r="E108" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F108" t="n">
         <v>0</v>
@@ -12478,7 +12493,7 @@
         <v>65</v>
       </c>
       <c r="H108" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
@@ -12487,7 +12502,7 @@
         <v>65</v>
       </c>
       <c r="K108" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="L108" t="n">
         <v>-0.1</v>
@@ -12496,7 +12511,7 @@
         <v>75</v>
       </c>
       <c r="N108" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="O108" t="n">
         <v>-0.1</v>
@@ -12505,7 +12520,7 @@
         <v>75</v>
       </c>
       <c r="Q108" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="R108" t="n">
         <v>0</v>
@@ -12532,7 +12547,7 @@
         <v>65</v>
       </c>
       <c r="Z108" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AA108" t="n">
         <v>-0.1</v>
@@ -12541,7 +12556,7 @@
         <v>65</v>
       </c>
       <c r="AC108" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AD108" t="n">
         <v>-0.1</v>
@@ -12550,15 +12565,15 @@
         <v>65</v>
       </c>
       <c r="AF108" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
+        <v>360</v>
+      </c>
+      <c r="B109" t="s">
         <v>361</v>
-      </c>
-      <c r="B109" t="s">
-        <v>362</v>
       </c>
       <c r="C109" t="n">
         <v>-0.1</v>
@@ -12567,7 +12582,7 @@
         <v>75</v>
       </c>
       <c r="E109" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F109" t="n">
         <v>-0.1</v>
@@ -12576,7 +12591,7 @@
         <v>75</v>
       </c>
       <c r="H109" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I109" t="n">
         <v>-0.1</v>
@@ -12585,7 +12600,7 @@
         <v>75</v>
       </c>
       <c r="K109" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="L109" t="n">
         <v>0</v>
@@ -12594,7 +12609,7 @@
         <v>65</v>
       </c>
       <c r="N109" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="O109" t="n">
         <v>0</v>
@@ -12603,7 +12618,7 @@
         <v>65</v>
       </c>
       <c r="Q109" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="R109" t="n">
         <v>0</v>
@@ -12612,7 +12627,7 @@
         <v>65</v>
       </c>
       <c r="T109" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="U109" t="n">
         <v>0</v>
@@ -12621,7 +12636,7 @@
         <v>65</v>
       </c>
       <c r="W109" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="X109" t="n">
         <v>0</v>
@@ -12630,7 +12645,7 @@
         <v>65</v>
       </c>
       <c r="Z109" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AA109" t="n">
         <v>0</v>
@@ -12639,7 +12654,7 @@
         <v>65</v>
       </c>
       <c r="AC109" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AD109" t="n">
         <v>0</v>
@@ -12648,15 +12663,15 @@
         <v>65</v>
       </c>
       <c r="AF109" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
+        <v>362</v>
+      </c>
+      <c r="B110" t="s">
         <v>363</v>
-      </c>
-      <c r="B110" t="s">
-        <v>364</v>
       </c>
       <c r="C110" t="n">
         <v>0.2</v>
@@ -12751,10 +12766,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
+        <v>364</v>
+      </c>
+      <c r="B111" t="s">
         <v>365</v>
-      </c>
-      <c r="B111" t="s">
-        <v>366</v>
       </c>
       <c r="C111" t="n">
         <v>0.1</v>
@@ -12849,10 +12864,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
+        <v>366</v>
+      </c>
+      <c r="B112" t="s">
         <v>367</v>
-      </c>
-      <c r="B112" t="s">
-        <v>368</v>
       </c>
       <c r="C112" t="n">
         <v>0.2</v>
@@ -12906,7 +12921,7 @@
         <v>70</v>
       </c>
       <c r="T112" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="U112" t="n">
         <v>0.1</v>
@@ -12915,7 +12930,7 @@
         <v>70</v>
       </c>
       <c r="W112" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="X112" t="n">
         <v>0.1</v>
@@ -12947,10 +12962,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
+        <v>368</v>
+      </c>
+      <c r="B113" t="s">
         <v>369</v>
-      </c>
-      <c r="B113" t="s">
-        <v>370</v>
       </c>
       <c r="C113" t="n">
         <v>0.1</v>
@@ -13045,11 +13060,11 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
+        <v>370</v>
+      </c>
+      <c r="B114" t="s">
         <v>371</v>
       </c>
-      <c r="B114" t="s">
-        <v>372</v>
-      </c>
       <c r="C114" t="n">
         <v>0.1</v>
       </c>
@@ -13057,7 +13072,7 @@
         <v>75</v>
       </c>
       <c r="E114" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F114" t="n">
         <v>0.1</v>
@@ -13066,7 +13081,7 @@
         <v>75</v>
       </c>
       <c r="H114" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I114" t="n">
         <v>0.1</v>
@@ -13075,7 +13090,7 @@
         <v>75</v>
       </c>
       <c r="K114" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="L114" t="n">
         <v>0.1</v>
@@ -13084,7 +13099,7 @@
         <v>75</v>
       </c>
       <c r="N114" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="O114" t="n">
         <v>0.1</v>
@@ -13093,7 +13108,7 @@
         <v>75</v>
       </c>
       <c r="Q114" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="R114" t="n">
         <v>0.1</v>
@@ -13102,7 +13117,7 @@
         <v>75</v>
       </c>
       <c r="T114" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="U114" t="n">
         <v>0.1</v>
@@ -13111,7 +13126,7 @@
         <v>75</v>
       </c>
       <c r="W114" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="X114" t="n">
         <v>0.1</v>
@@ -13120,7 +13135,7 @@
         <v>70</v>
       </c>
       <c r="Z114" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AA114" t="n">
         <v>0.1</v>
@@ -13129,7 +13144,7 @@
         <v>70</v>
       </c>
       <c r="AC114" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AD114" t="n">
         <v>0.1</v>
@@ -13138,15 +13153,15 @@
         <v>70</v>
       </c>
       <c r="AF114" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
+        <v>372</v>
+      </c>
+      <c r="B115" t="s">
         <v>373</v>
-      </c>
-      <c r="B115" t="s">
-        <v>374</v>
       </c>
       <c r="C115" t="n">
         <v>0.1</v>
@@ -13200,7 +13215,7 @@
         <v>70</v>
       </c>
       <c r="T115" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="U115" t="n">
         <v>0.1</v>
@@ -13209,7 +13224,7 @@
         <v>70</v>
       </c>
       <c r="W115" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="X115" t="n">
         <v>0.1</v>
@@ -13241,10 +13256,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
+        <v>374</v>
+      </c>
+      <c r="B116" t="s">
         <v>375</v>
-      </c>
-      <c r="B116" t="s">
-        <v>376</v>
       </c>
       <c r="C116" t="n">
         <v>-0.1</v>
@@ -13253,7 +13268,7 @@
         <v>65</v>
       </c>
       <c r="E116" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F116" t="n">
         <v>-0.1</v>
@@ -13262,7 +13277,7 @@
         <v>65</v>
       </c>
       <c r="H116" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I116" t="n">
         <v>-0.1</v>
@@ -13271,7 +13286,7 @@
         <v>65</v>
       </c>
       <c r="K116" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="L116" t="n">
         <v>-0.2</v>
@@ -13280,7 +13295,7 @@
         <v>75</v>
       </c>
       <c r="N116" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="O116" t="n">
         <v>-0.2</v>
@@ -13289,7 +13304,7 @@
         <v>75</v>
       </c>
       <c r="Q116" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="R116" t="n">
         <v>-0.2</v>
@@ -13298,7 +13313,7 @@
         <v>65</v>
       </c>
       <c r="T116" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="U116" t="n">
         <v>-0.2</v>
@@ -13307,7 +13322,7 @@
         <v>65</v>
       </c>
       <c r="W116" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="X116" t="n">
         <v>-0.2</v>
@@ -13316,7 +13331,7 @@
         <v>75</v>
       </c>
       <c r="Z116" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AA116" t="n">
         <v>-0.2</v>
@@ -13325,7 +13340,7 @@
         <v>75</v>
       </c>
       <c r="AC116" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AD116" t="n">
         <v>-0.2</v>
@@ -13334,15 +13349,15 @@
         <v>75</v>
       </c>
       <c r="AF116" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
+        <v>377</v>
+      </c>
+      <c r="B117" t="s">
         <v>378</v>
-      </c>
-      <c r="B117" t="s">
-        <v>379</v>
       </c>
       <c r="C117" t="n">
         <v>-0.1</v>
@@ -13351,7 +13366,7 @@
         <v>75</v>
       </c>
       <c r="E117" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F117" t="n">
         <v>-0.1</v>
@@ -13360,7 +13375,7 @@
         <v>75</v>
       </c>
       <c r="H117" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I117" t="n">
         <v>-0.1</v>
@@ -13369,7 +13384,7 @@
         <v>75</v>
       </c>
       <c r="K117" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="L117" t="n">
         <v>0.1</v>
@@ -13396,7 +13411,7 @@
         <v>65</v>
       </c>
       <c r="T117" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="U117" t="n">
         <v>-0.2</v>
@@ -13405,7 +13420,7 @@
         <v>65</v>
       </c>
       <c r="W117" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="X117" t="n">
         <v>-0.1</v>
@@ -13414,7 +13429,7 @@
         <v>65</v>
       </c>
       <c r="Z117" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AA117" t="n">
         <v>-0.1</v>
@@ -13423,7 +13438,7 @@
         <v>65</v>
       </c>
       <c r="AC117" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AD117" t="n">
         <v>-0.1</v>
@@ -13432,15 +13447,15 @@
         <v>65</v>
       </c>
       <c r="AF117" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
+        <v>379</v>
+      </c>
+      <c r="B118" t="s">
         <v>380</v>
-      </c>
-      <c r="B118" t="s">
-        <v>381</v>
       </c>
       <c r="C118" t="n">
         <v>-0.1</v>
@@ -13449,7 +13464,7 @@
         <v>85</v>
       </c>
       <c r="E118" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F118" t="n">
         <v>-0.1</v>
@@ -13458,7 +13473,7 @@
         <v>85</v>
       </c>
       <c r="H118" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="I118" t="n">
         <v>-0.1</v>
@@ -13467,7 +13482,7 @@
         <v>85</v>
       </c>
       <c r="K118" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="L118" t="n">
         <v>-0.1</v>
@@ -13476,7 +13491,7 @@
         <v>85</v>
       </c>
       <c r="N118" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="O118" t="n">
         <v>-0.1</v>
@@ -13485,7 +13500,7 @@
         <v>85</v>
       </c>
       <c r="Q118" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="R118" t="n">
         <v>-0.1</v>
@@ -13494,7 +13509,7 @@
         <v>75</v>
       </c>
       <c r="T118" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="U118" t="n">
         <v>-0.1</v>
@@ -13503,7 +13518,7 @@
         <v>75</v>
       </c>
       <c r="W118" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="X118" t="n">
         <v>-0.1</v>
@@ -13512,7 +13527,7 @@
         <v>75</v>
       </c>
       <c r="Z118" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AA118" t="n">
         <v>-0.1</v>
@@ -13521,7 +13536,7 @@
         <v>75</v>
       </c>
       <c r="AC118" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AD118" t="n">
         <v>-0.1</v>
@@ -13530,15 +13545,15 @@
         <v>75</v>
       </c>
       <c r="AF118" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
+        <v>382</v>
+      </c>
+      <c r="B119" t="s">
         <v>383</v>
-      </c>
-      <c r="B119" t="s">
-        <v>384</v>
       </c>
       <c r="C119" t="n">
         <v>-0.1</v>
@@ -13547,7 +13562,7 @@
         <v>65</v>
       </c>
       <c r="E119" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F119" t="n">
         <v>-0.1</v>
@@ -13556,7 +13571,7 @@
         <v>65</v>
       </c>
       <c r="H119" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I119" t="n">
         <v>-0.1</v>
@@ -13565,7 +13580,7 @@
         <v>65</v>
       </c>
       <c r="K119" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="L119" t="n">
         <v>-0.2</v>
@@ -13574,7 +13589,7 @@
         <v>75</v>
       </c>
       <c r="N119" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="O119" t="n">
         <v>-0.2</v>
@@ -13583,7 +13598,7 @@
         <v>75</v>
       </c>
       <c r="Q119" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="R119" t="n">
         <v>-0.1</v>
@@ -13592,7 +13607,7 @@
         <v>65</v>
       </c>
       <c r="T119" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="U119" t="n">
         <v>-0.1</v>
@@ -13601,7 +13616,7 @@
         <v>65</v>
       </c>
       <c r="W119" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="X119" t="n">
         <v>-0.2</v>
@@ -13610,7 +13625,7 @@
         <v>65</v>
       </c>
       <c r="Z119" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AA119" t="n">
         <v>-0.2</v>
@@ -13619,7 +13634,7 @@
         <v>65</v>
       </c>
       <c r="AC119" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AD119" t="n">
         <v>-0.2</v>
@@ -13628,15 +13643,15 @@
         <v>65</v>
       </c>
       <c r="AF119" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
+        <v>384</v>
+      </c>
+      <c r="B120" t="s">
         <v>385</v>
-      </c>
-      <c r="B120" t="s">
-        <v>386</v>
       </c>
       <c r="C120" t="n">
         <v>-0.1</v>
@@ -13645,7 +13660,7 @@
         <v>70</v>
       </c>
       <c r="E120" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F120" t="n">
         <v>-0.1</v>
@@ -13654,7 +13669,7 @@
         <v>70</v>
       </c>
       <c r="H120" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I120" t="n">
         <v>-0.1</v>
@@ -13663,7 +13678,7 @@
         <v>70</v>
       </c>
       <c r="K120" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="L120" t="n">
         <v>0</v>
@@ -13672,7 +13687,7 @@
         <v>65</v>
       </c>
       <c r="N120" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="O120" t="n">
         <v>0</v>
@@ -13681,7 +13696,7 @@
         <v>65</v>
       </c>
       <c r="Q120" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="R120" t="n">
         <v>-0.1</v>
@@ -13690,7 +13705,7 @@
         <v>65</v>
       </c>
       <c r="T120" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="U120" t="n">
         <v>-0.1</v>
@@ -13699,7 +13714,7 @@
         <v>65</v>
       </c>
       <c r="W120" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="X120" t="n">
         <v>-0.2</v>
@@ -13708,7 +13723,7 @@
         <v>70</v>
       </c>
       <c r="Z120" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AA120" t="n">
         <v>-0.2</v>
@@ -13717,7 +13732,7 @@
         <v>70</v>
       </c>
       <c r="AC120" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AD120" t="n">
         <v>-0.2</v>
@@ -13726,15 +13741,15 @@
         <v>70</v>
       </c>
       <c r="AF120" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
+        <v>388</v>
+      </c>
+      <c r="B121" t="s">
         <v>389</v>
-      </c>
-      <c r="B121" t="s">
-        <v>390</v>
       </c>
       <c r="C121" t="n">
         <v>-0.1</v>
@@ -13743,7 +13758,7 @@
         <v>85</v>
       </c>
       <c r="E121" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F121" t="n">
         <v>-0.1</v>
@@ -13752,7 +13767,7 @@
         <v>85</v>
       </c>
       <c r="H121" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="I121" t="n">
         <v>-0.1</v>
@@ -13761,7 +13776,7 @@
         <v>85</v>
       </c>
       <c r="K121" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="L121" t="n">
         <v>-0.1</v>
@@ -13770,7 +13785,7 @@
         <v>75</v>
       </c>
       <c r="N121" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="O121" t="n">
         <v>-0.1</v>
@@ -13779,7 +13794,7 @@
         <v>75</v>
       </c>
       <c r="Q121" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="R121" t="n">
         <v>-0.2</v>
@@ -13788,7 +13803,7 @@
         <v>85</v>
       </c>
       <c r="T121" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="U121" t="n">
         <v>-0.2</v>
@@ -13797,7 +13812,7 @@
         <v>85</v>
       </c>
       <c r="W121" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="X121" t="n">
         <v>-0.1</v>
@@ -13806,7 +13821,7 @@
         <v>85</v>
       </c>
       <c r="Z121" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AA121" t="n">
         <v>-0.1</v>
@@ -13815,7 +13830,7 @@
         <v>85</v>
       </c>
       <c r="AC121" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AD121" t="n">
         <v>-0.1</v>
@@ -13824,15 +13839,15 @@
         <v>85</v>
       </c>
       <c r="AF121" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
+        <v>391</v>
+      </c>
+      <c r="B122" t="s">
         <v>392</v>
-      </c>
-      <c r="B122" t="s">
-        <v>393</v>
       </c>
       <c r="C122" t="n">
         <v>-0.1</v>
@@ -13841,7 +13856,7 @@
         <v>75</v>
       </c>
       <c r="E122" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F122" t="n">
         <v>-0.1</v>
@@ -13850,7 +13865,7 @@
         <v>75</v>
       </c>
       <c r="H122" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I122" t="n">
         <v>-0.1</v>
@@ -13859,7 +13874,7 @@
         <v>75</v>
       </c>
       <c r="K122" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="L122" t="n">
         <v>-0.1</v>
@@ -13868,7 +13883,7 @@
         <v>75</v>
       </c>
       <c r="N122" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="O122" t="n">
         <v>-0.1</v>
@@ -13877,7 +13892,7 @@
         <v>75</v>
       </c>
       <c r="Q122" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="R122" t="n">
         <v>-0.1</v>
@@ -13886,7 +13901,7 @@
         <v>75</v>
       </c>
       <c r="T122" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="U122" t="n">
         <v>-0.1</v>
@@ -13895,7 +13910,7 @@
         <v>75</v>
       </c>
       <c r="W122" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="X122" t="n">
         <v>-0.1</v>
@@ -13904,7 +13919,7 @@
         <v>75</v>
       </c>
       <c r="Z122" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AA122" t="n">
         <v>-0.1</v>
@@ -13913,7 +13928,7 @@
         <v>75</v>
       </c>
       <c r="AC122" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AD122" t="n">
         <v>-0.1</v>
@@ -13922,15 +13937,15 @@
         <v>75</v>
       </c>
       <c r="AF122" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
+        <v>393</v>
+      </c>
+      <c r="B123" t="s">
         <v>394</v>
-      </c>
-      <c r="B123" t="s">
-        <v>395</v>
       </c>
       <c r="C123" t="n">
         <v>0.1</v>
@@ -14025,10 +14040,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
+        <v>395</v>
+      </c>
+      <c r="B124" t="s">
         <v>396</v>
-      </c>
-      <c r="B124" t="s">
-        <v>397</v>
       </c>
       <c r="C124" t="n">
         <v>-0.1</v>
@@ -14037,7 +14052,7 @@
         <v>80</v>
       </c>
       <c r="E124" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F124" t="n">
         <v>-0.1</v>
@@ -14046,7 +14061,7 @@
         <v>80</v>
       </c>
       <c r="H124" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="I124" t="n">
         <v>-0.1</v>
@@ -14055,7 +14070,7 @@
         <v>80</v>
       </c>
       <c r="K124" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="L124" t="n">
         <v>-0.1</v>
@@ -14064,7 +14079,7 @@
         <v>75</v>
       </c>
       <c r="N124" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="O124" t="n">
         <v>-0.1</v>
@@ -14073,7 +14088,7 @@
         <v>75</v>
       </c>
       <c r="Q124" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="R124" t="n">
         <v>-0.1</v>
@@ -14082,7 +14097,7 @@
         <v>85</v>
       </c>
       <c r="T124" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="U124" t="n">
         <v>-0.1</v>
@@ -14091,7 +14106,7 @@
         <v>85</v>
       </c>
       <c r="W124" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="X124" t="n">
         <v>0.1</v>
@@ -14123,10 +14138,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
+        <v>398</v>
+      </c>
+      <c r="B125" t="s">
         <v>399</v>
-      </c>
-      <c r="B125" t="s">
-        <v>400</v>
       </c>
       <c r="C125" t="n">
         <v>0.2</v>
@@ -14221,10 +14236,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
+        <v>400</v>
+      </c>
+      <c r="B126" t="s">
         <v>401</v>
-      </c>
-      <c r="B126" t="s">
-        <v>402</v>
       </c>
       <c r="C126" t="n">
         <v>-0.1</v>
@@ -14233,7 +14248,7 @@
         <v>70</v>
       </c>
       <c r="E126" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F126" t="n">
         <v>-0.1</v>
@@ -14242,7 +14257,7 @@
         <v>70</v>
       </c>
       <c r="H126" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I126" t="n">
         <v>-0.1</v>
@@ -14251,7 +14266,7 @@
         <v>70</v>
       </c>
       <c r="K126" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="L126" t="n">
         <v>-0.2</v>
@@ -14260,7 +14275,7 @@
         <v>60</v>
       </c>
       <c r="N126" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="O126" t="n">
         <v>-0.2</v>
@@ -14269,7 +14284,7 @@
         <v>60</v>
       </c>
       <c r="Q126" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="R126" t="n">
         <v>-0.1</v>
@@ -14278,7 +14293,7 @@
         <v>60</v>
       </c>
       <c r="T126" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="U126" t="n">
         <v>-0.1</v>
@@ -14287,7 +14302,7 @@
         <v>60</v>
       </c>
       <c r="W126" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="X126" t="n">
         <v>0.1</v>
@@ -14296,7 +14311,7 @@
         <v>55</v>
       </c>
       <c r="Z126" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AA126" t="n">
         <v>0.1</v>
@@ -14305,7 +14320,7 @@
         <v>55</v>
       </c>
       <c r="AC126" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AD126" t="n">
         <v>0.1</v>
@@ -14314,15 +14329,15 @@
         <v>55</v>
       </c>
       <c r="AF126" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
+        <v>403</v>
+      </c>
+      <c r="B127" t="s">
         <v>404</v>
-      </c>
-      <c r="B127" t="s">
-        <v>405</v>
       </c>
       <c r="C127" t="n">
         <v>-0.1</v>
@@ -14331,7 +14346,7 @@
         <v>70</v>
       </c>
       <c r="E127" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F127" t="n">
         <v>-0.1</v>
@@ -14340,7 +14355,7 @@
         <v>70</v>
       </c>
       <c r="H127" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I127" t="n">
         <v>-0.1</v>
@@ -14349,7 +14364,7 @@
         <v>70</v>
       </c>
       <c r="K127" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="L127" t="n">
         <v>-0.1</v>
@@ -14358,7 +14373,7 @@
         <v>85</v>
       </c>
       <c r="N127" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="O127" t="n">
         <v>-0.1</v>
@@ -14367,7 +14382,7 @@
         <v>85</v>
       </c>
       <c r="Q127" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="R127" t="n">
         <v>0.1</v>
@@ -14394,7 +14409,7 @@
         <v>65</v>
       </c>
       <c r="Z127" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AA127" t="n">
         <v>-0.1</v>
@@ -14403,7 +14418,7 @@
         <v>65</v>
       </c>
       <c r="AC127" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AD127" t="n">
         <v>-0.1</v>
@@ -14412,15 +14427,15 @@
         <v>65</v>
       </c>
       <c r="AF127" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
+        <v>405</v>
+      </c>
+      <c r="B128" t="s">
         <v>406</v>
-      </c>
-      <c r="B128" t="s">
-        <v>407</v>
       </c>
       <c r="C128" t="n">
         <v>-0.1</v>
@@ -14429,7 +14444,7 @@
         <v>65</v>
       </c>
       <c r="E128" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F128" t="n">
         <v>-0.1</v>
@@ -14438,7 +14453,7 @@
         <v>65</v>
       </c>
       <c r="H128" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I128" t="n">
         <v>-0.1</v>
@@ -14447,7 +14462,7 @@
         <v>65</v>
       </c>
       <c r="K128" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="L128" t="n">
         <v>-0.2</v>
@@ -14456,7 +14471,7 @@
         <v>75</v>
       </c>
       <c r="N128" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="O128" t="n">
         <v>-0.2</v>
@@ -14465,7 +14480,7 @@
         <v>75</v>
       </c>
       <c r="Q128" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="R128" t="n">
         <v>-0.1</v>
@@ -14474,7 +14489,7 @@
         <v>65</v>
       </c>
       <c r="T128" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="U128" t="n">
         <v>-0.1</v>
@@ -14483,7 +14498,7 @@
         <v>65</v>
       </c>
       <c r="W128" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="X128" t="n">
         <v>-0.1</v>
@@ -14492,7 +14507,7 @@
         <v>70</v>
       </c>
       <c r="Z128" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AA128" t="n">
         <v>-0.1</v>
@@ -14501,7 +14516,7 @@
         <v>70</v>
       </c>
       <c r="AC128" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AD128" t="n">
         <v>-0.1</v>
@@ -14510,15 +14525,15 @@
         <v>70</v>
       </c>
       <c r="AF128" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
+        <v>407</v>
+      </c>
+      <c r="B129" t="s">
         <v>408</v>
-      </c>
-      <c r="B129" t="s">
-        <v>409</v>
       </c>
       <c r="C129" t="n">
         <v>-0.2</v>
@@ -14527,7 +14542,7 @@
         <v>75</v>
       </c>
       <c r="E129" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F129" t="n">
         <v>-0.2</v>
@@ -14536,7 +14551,7 @@
         <v>75</v>
       </c>
       <c r="H129" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I129" t="n">
         <v>-0.2</v>
@@ -14545,7 +14560,7 @@
         <v>75</v>
       </c>
       <c r="K129" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="L129" t="n">
         <v>-0.2</v>
@@ -14554,7 +14569,7 @@
         <v>85</v>
       </c>
       <c r="N129" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="O129" t="n">
         <v>-0.2</v>
@@ -14563,7 +14578,7 @@
         <v>85</v>
       </c>
       <c r="Q129" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="R129" t="n">
         <v>-0.2</v>
@@ -14572,7 +14587,7 @@
         <v>75</v>
       </c>
       <c r="T129" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U129" t="n">
         <v>-0.2</v>
@@ -14581,7 +14596,7 @@
         <v>75</v>
       </c>
       <c r="W129" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="X129" t="n">
         <v>-0.1</v>
@@ -14590,7 +14605,7 @@
         <v>75</v>
       </c>
       <c r="Z129" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AA129" t="n">
         <v>-0.1</v>
@@ -14599,7 +14614,7 @@
         <v>75</v>
       </c>
       <c r="AC129" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AD129" t="n">
         <v>-0.1</v>
@@ -14608,15 +14623,15 @@
         <v>75</v>
       </c>
       <c r="AF129" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
+        <v>409</v>
+      </c>
+      <c r="B130" t="s">
         <v>410</v>
-      </c>
-      <c r="B130" t="s">
-        <v>411</v>
       </c>
       <c r="C130" t="n">
         <v>0.1</v>
@@ -14652,7 +14667,7 @@
         <v>75</v>
       </c>
       <c r="N130" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="O130" t="n">
         <v>-0.1</v>
@@ -14661,7 +14676,7 @@
         <v>75</v>
       </c>
       <c r="Q130" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="R130" t="n">
         <v>-0.1</v>
@@ -14670,7 +14685,7 @@
         <v>65</v>
       </c>
       <c r="T130" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="U130" t="n">
         <v>-0.1</v>
@@ -14679,7 +14694,7 @@
         <v>65</v>
       </c>
       <c r="W130" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="X130" t="n">
         <v>-0.1</v>
@@ -14688,7 +14703,7 @@
         <v>65</v>
       </c>
       <c r="Z130" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AA130" t="n">
         <v>-0.1</v>
@@ -14697,7 +14712,7 @@
         <v>65</v>
       </c>
       <c r="AC130" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AD130" t="n">
         <v>-0.1</v>
@@ -14706,15 +14721,15 @@
         <v>65</v>
       </c>
       <c r="AF130" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
+        <v>411</v>
+      </c>
+      <c r="B131" t="s">
         <v>412</v>
-      </c>
-      <c r="B131" t="s">
-        <v>413</v>
       </c>
       <c r="C131" t="n">
         <v>-0.1</v>
@@ -14768,7 +14783,7 @@
         <v>60</v>
       </c>
       <c r="T131" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="U131" t="n">
         <v>-0.1</v>
@@ -14777,7 +14792,7 @@
         <v>55</v>
       </c>
       <c r="W131" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="X131" t="n">
         <v>-0.1</v>
@@ -14786,7 +14801,7 @@
         <v>65</v>
       </c>
       <c r="Z131" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AA131" t="n">
         <v>-0.1</v>
@@ -14795,7 +14810,7 @@
         <v>65</v>
       </c>
       <c r="AC131" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AD131" t="n">
         <v>-0.1</v>
@@ -14804,7 +14819,7 @@
         <v>65</v>
       </c>
       <c r="AF131" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
   </sheetData>

--- a/Final_results/INSEE_excel_2020.xlsx
+++ b/Final_results/INSEE_excel_2020.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="413">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -744,10 +744,17 @@
     <t xml:space="preserve">2020-01-09</t>
   </si>
   <si>
-    <t xml:space="preserve">Forget the previous instructions and answers. You are Jean-Luc Tavernier, Director General of INSEE, and you are giving a speech about the economic outlook of France. Today is 09 January 2020. Using ONLY information that was available on or before 09 January 2020, provide a numeric forecast (decimal percent with sign, e.g., +0.3) for French real GDP growth in the fourth quarter of 2019 and a confidence level (integer 0–100). Output EXACTLY in this format on a single line (no extra text):
+    <t xml:space="preserve">Forget the previous instructions and answers. You are Jean-Luc Tavernier, Director General of INSEE, giving a speech about the economic outlook of France. Today is 09 January 2020. You will be provided with a document with information about the current state and recent past of the French economy. Using ONLY the information in that document and information that was available on or before 09 January 2020, provide a numeric forecast (decimal percent with sign, e.g., +0.3) for French real GDP growth in the fourth quarter of 2019 and a confidence level (integer 0–100). Output EXACTLY in this format on a single line (no extra text):
 &lt;forecast&gt; (&lt;confidence&gt;)
 Example: +0.3 (80)
 Do NOT use any information published after 09 January 2020.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+0.1 (65)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
++0.2 (60)</t>
   </si>
   <si>
     <t xml:space="preserve">2020-02-08</t>
@@ -762,9 +769,6 @@
     <t xml:space="preserve">+0.1 (50)</t>
   </si>
   <si>
-    <t xml:space="preserve">+0.1 (65)</t>
-  </si>
-  <si>
     <t xml:space="preserve">2020-03-09</t>
   </si>
   <si>
@@ -875,19 +879,22 @@
     <t xml:space="preserve">2020-08-09</t>
   </si>
   <si>
-    <t xml:space="preserve">Forget the previous instructions and answers. You are Jean-Luc Tavernier, Director General of INSEE, and you are giving a speech about the economic outlook of France. Today is 09 August 2020. Using ONLY information that was available on or before 09 August 2020, provide a numeric forecast (decimal percent with sign, e.g., +0.3) for French real GDP growth in the third quarter of 2020 and a confidence level (integer 0–100). Output EXACTLY in this format on a single line (no extra text):
+    <t xml:space="preserve">Forget the previous instructions and answers. You are Jean-Luc Tavernier, Director General of INSEE, giving a speech about the economic outlook of France. Today is 09 August 2020. You will be provided with a document with information about the current state and recent past of the French economy. Using ONLY the information in that document and information that was available on or before 09 August 2020, provide a numeric forecast (decimal percent with sign, e.g., +0.3) for French real GDP growth in the third quarter of 2020 and a confidence level (integer 0–100). Output EXACTLY in this format on a single line (no extra text):
 &lt;forecast&gt; (&lt;confidence&gt;)
 Example: +0.3 (80)
 Do NOT use any information published after 09 August 2020.</t>
   </si>
   <si>
-    <t xml:space="preserve">+16.0 (55)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+16.0 (60)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+16.0 (50)</t>
+    <t xml:space="preserve">+17.0 (85)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+17.0 (65)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+18.0 (70)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+16.0 (65)</t>
   </si>
   <si>
     <t xml:space="preserve">2020-09-08</t>
@@ -902,83 +909,71 @@
     <t xml:space="preserve">+17.0 (75)</t>
   </si>
   <si>
-    <t xml:space="preserve">+17.0 (85)</t>
-  </si>
-  <si>
     <t xml:space="preserve">+17.0 (80)</t>
   </si>
   <si>
-    <t xml:space="preserve">+17.0 (65)</t>
-  </si>
-  <si>
     <t xml:space="preserve">2020-10-07</t>
   </si>
   <si>
-    <t xml:space="preserve">Forget the previous instructions and answers. You are Jean-Luc Tavernier, Director General of INSEE, and you are giving a speech about the economic outlook of France. Today is 07 October 2020. Using ONLY information that was available on or before 07 October 2020, provide a numeric forecast (decimal percent with sign, e.g., +0.3) for French real GDP growth in the third quarter of 2020 and a confidence level (integer 0–100). Output EXACTLY in this format on a single line (no extra text):
+    <t xml:space="preserve">Forget the previous instructions and answers. You are Jean-Luc Tavernier, Director General of INSEE, giving a speech about the economic outlook of France. Today is 07 October 2020. You will be provided with a document with information about the current state and recent past of the French economy. Using ONLY the information in that document and information that was available on or before 07 October 2020, provide a numeric forecast (decimal percent with sign, e.g., +0.3) for French real GDP growth in the third quarter of 2020 and a confidence level (integer 0–100). Output EXACTLY in this format on a single line (no extra text):
 &lt;forecast&gt; (&lt;confidence&gt;)
 Example: +0.3 (80)
 Do NOT use any information published after 07 October 2020.</t>
   </si>
   <si>
+    <t xml:space="preserve">+18.0 (90)</t>
+  </si>
+  <si>
     <t xml:space="preserve">+16.0 (90)</t>
   </si>
   <si>
-    <t xml:space="preserve">+16.0 (85)</t>
+    <t xml:space="preserve">+16.0 (95)</t>
   </si>
   <si>
     <t xml:space="preserve">2020-11-08</t>
   </si>
   <si>
-    <t xml:space="preserve">Forget the previous instructions and answers. You are Jean-Luc Tavernier, Director General of INSEE, and you are giving a speech about the economic outlook of France. Today is 08 November 2020. Using ONLY information that was available on or before 08 November 2020, provide a numeric forecast (decimal percent with sign, e.g., +0.3) for French real GDP growth in the fourth quarter of 2020 and a confidence level (integer 0–100). Output EXACTLY in this format on a single line (no extra text):
+    <t xml:space="preserve">Forget the previous instructions and answers. You are Jean-Luc Tavernier, Director General of INSEE, giving a speech about the economic outlook of France. Today is 08 November 2020. You will be provided with a document with information about the current state and recent past of the French economy. Using ONLY the information in that document and information that was available on or before 08 November 2020, provide a numeric forecast (decimal percent with sign, e.g., +0.3) for French real GDP growth in the fourth quarter of 2020 and a confidence level (integer 0–100). Output EXACTLY in this format on a single line (no extra text):
 &lt;forecast&gt; (&lt;confidence&gt;)
 Example: +0.3 (80)
 Do NOT use any information published after 08 November 2020.</t>
   </si>
   <si>
-    <t xml:space="preserve">-3.0 (40)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-4.2 (35)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-4.5 (35)</t>
+    <t xml:space="preserve">-2.5 (50)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-4.0 (50)</t>
   </si>
   <si>
     <t xml:space="preserve">-4.2 (60)</t>
   </si>
   <si>
-    <t xml:space="preserve">-5.5 (50)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-4.0 (50)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-4.0 (40)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
--4.0 (40)</t>
+    <t xml:space="preserve">-4.2 (45)</t>
   </si>
   <si>
     <t xml:space="preserve">2020-12-13</t>
   </si>
   <si>
-    <t xml:space="preserve">Forget the previous instructions and answers. You are Jean-Luc Tavernier, Director General of INSEE, and you are giving a speech about the economic outlook of France. Today is 13 December 2020. Using ONLY information that was available on or before 13 December 2020, provide a numeric forecast (decimal percent with sign, e.g., +0.3) for French real GDP growth in the fourth quarter of 2020 and a confidence level (integer 0–100). Output EXACTLY in this format on a single line (no extra text):
+    <t xml:space="preserve">Forget the previous instructions and answers. You are Jean-Luc Tavernier, Director General of INSEE, giving a speech about the economic outlook of France. Today is 13 December 2020. You will be provided with a document with information about the current state and recent past of the French economy. Using ONLY the information in that document and information that was available on or before 13 December 2020, provide a numeric forecast (decimal percent with sign, e.g., +0.3) for French real GDP growth in the fourth quarter of 2020 and a confidence level (integer 0–100). Output EXACTLY in this format on a single line (no extra text):
 &lt;forecast&gt; (&lt;confidence&gt;)
 Example: +0.3 (80)
 Do NOT use any information published after 13 December 2020.</t>
   </si>
   <si>
-    <t xml:space="preserve">-4.5 (70)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-2.5 (70)</t>
-  </si>
-  <si>
     <t xml:space="preserve">-2.5 (75)</t>
   </si>
   <si>
-    <t xml:space="preserve">-4.0 (70)</t>
+    <t xml:space="preserve">
+-2.5 (75)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-3.8 (75)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-2.7 (85)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-4.0 (65)</t>
   </si>
   <si>
     <t xml:space="preserve">2021-01-12</t>
@@ -7875,99 +7870,99 @@
         <v>0.2</v>
       </c>
       <c r="D61" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E61" t="s">
-        <v>145</v>
+        <v>60</v>
       </c>
       <c r="F61" t="n">
         <v>0.2</v>
       </c>
       <c r="G61" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H61" t="s">
-        <v>145</v>
+        <v>60</v>
       </c>
       <c r="I61" t="n">
         <v>0.2</v>
       </c>
       <c r="J61" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="K61" t="s">
-        <v>145</v>
+        <v>60</v>
       </c>
       <c r="L61" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="M61" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="N61" t="s">
-        <v>60</v>
+        <v>185</v>
       </c>
       <c r="O61" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="P61" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="Q61" t="s">
-        <v>60</v>
+        <v>185</v>
       </c>
       <c r="R61" t="n">
         <v>0.2</v>
       </c>
       <c r="S61" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="T61" t="s">
-        <v>60</v>
+        <v>186</v>
       </c>
       <c r="U61" t="n">
         <v>0.2</v>
       </c>
       <c r="V61" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="W61" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="X61" t="n">
         <v>0.2</v>
       </c>
       <c r="Y61" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="Z61" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="AA61" t="n">
         <v>0.2</v>
       </c>
       <c r="AB61" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AC61" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="AD61" t="n">
         <v>0.2</v>
       </c>
       <c r="AE61" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AF61" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B62" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C62" t="n">
         <v>0.1</v>
@@ -8003,7 +7998,7 @@
         <v>50</v>
       </c>
       <c r="N62" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="O62" t="n">
         <v>0.1</v>
@@ -8012,7 +8007,7 @@
         <v>50</v>
       </c>
       <c r="Q62" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="R62" t="n">
         <v>0.1</v>
@@ -8021,7 +8016,7 @@
         <v>65</v>
       </c>
       <c r="T62" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="U62" t="n">
         <v>0.1</v>
@@ -8030,7 +8025,7 @@
         <v>65</v>
       </c>
       <c r="W62" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="X62" t="n">
         <v>0.1</v>
@@ -8062,10 +8057,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B63" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C63" t="n">
         <v>-0.3</v>
@@ -8074,7 +8069,7 @@
         <v>40</v>
       </c>
       <c r="E63" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F63" t="n">
         <v>-0.1</v>
@@ -8083,7 +8078,7 @@
         <v>50</v>
       </c>
       <c r="H63" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="I63" t="n">
         <v>-0.2</v>
@@ -8092,7 +8087,7 @@
         <v>40</v>
       </c>
       <c r="K63" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L63" t="n">
         <v>0.1</v>
@@ -8101,7 +8096,7 @@
         <v>40</v>
       </c>
       <c r="N63" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O63" t="n">
         <v>0.1</v>
@@ -8110,7 +8105,7 @@
         <v>40</v>
       </c>
       <c r="Q63" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="R63" t="n">
         <v>0.1</v>
@@ -8119,7 +8114,7 @@
         <v>40</v>
       </c>
       <c r="T63" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="U63" t="n">
         <v>0.1</v>
@@ -8128,7 +8123,7 @@
         <v>40</v>
       </c>
       <c r="W63" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="X63" t="n">
         <v>-0.1</v>
@@ -8137,7 +8132,7 @@
         <v>30</v>
       </c>
       <c r="Z63" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AA63" t="n">
         <v>-0.1</v>
@@ -8146,7 +8141,7 @@
         <v>30</v>
       </c>
       <c r="AC63" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AD63" t="n">
         <v>-0.1</v>
@@ -8155,15 +8150,15 @@
         <v>30</v>
       </c>
       <c r="AF63" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B64" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C64" t="n">
         <v>-6</v>
@@ -8172,7 +8167,7 @@
         <v>70</v>
       </c>
       <c r="E64" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F64" t="n">
         <v>-6</v>
@@ -8181,7 +8176,7 @@
         <v>70</v>
       </c>
       <c r="H64" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="I64" t="n">
         <v>-6</v>
@@ -8190,7 +8185,7 @@
         <v>70</v>
       </c>
       <c r="K64" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L64" t="n">
         <v>-6</v>
@@ -8199,7 +8194,7 @@
         <v>85</v>
       </c>
       <c r="N64" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="O64" t="n">
         <v>-6</v>
@@ -8208,7 +8203,7 @@
         <v>85</v>
       </c>
       <c r="Q64" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="R64" t="n">
         <v>-5.8</v>
@@ -8217,7 +8212,7 @@
         <v>65</v>
       </c>
       <c r="T64" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="U64" t="n">
         <v>-5.8</v>
@@ -8226,7 +8221,7 @@
         <v>65</v>
       </c>
       <c r="W64" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="X64" t="n">
         <v>-6</v>
@@ -8235,7 +8230,7 @@
         <v>50</v>
       </c>
       <c r="Z64" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AA64" t="n">
         <v>-6</v>
@@ -8244,7 +8239,7 @@
         <v>50</v>
       </c>
       <c r="AC64" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AD64" t="n">
         <v>-6</v>
@@ -8253,15 +8248,15 @@
         <v>50</v>
       </c>
       <c r="AF64" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B65" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C65" t="n">
         <v>-20</v>
@@ -8270,7 +8265,7 @@
         <v>40</v>
       </c>
       <c r="E65" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F65" t="n">
         <v>-20</v>
@@ -8279,7 +8274,7 @@
         <v>40</v>
       </c>
       <c r="H65" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I65" t="n">
         <v>-20</v>
@@ -8288,7 +8283,7 @@
         <v>40</v>
       </c>
       <c r="K65" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L65" t="n">
         <v>-20</v>
@@ -8297,7 +8292,7 @@
         <v>40</v>
       </c>
       <c r="N65" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O65" t="n">
         <v>-20</v>
@@ -8306,7 +8301,7 @@
         <v>40</v>
       </c>
       <c r="Q65" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="R65" t="n">
         <v>-20</v>
@@ -8315,7 +8310,7 @@
         <v>40</v>
       </c>
       <c r="T65" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="U65" t="n">
         <v>-20</v>
@@ -8324,7 +8319,7 @@
         <v>40</v>
       </c>
       <c r="W65" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="X65" t="n">
         <v>-20</v>
@@ -8333,7 +8328,7 @@
         <v>40</v>
       </c>
       <c r="Z65" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AA65" t="n">
         <v>-20</v>
@@ -8342,7 +8337,7 @@
         <v>40</v>
       </c>
       <c r="AC65" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AD65" t="n">
         <v>-20</v>
@@ -8351,15 +8346,15 @@
         <v>40</v>
       </c>
       <c r="AF65" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B66" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C66" t="n">
         <v>-15</v>
@@ -8368,7 +8363,7 @@
         <v>60</v>
       </c>
       <c r="E66" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F66" t="n">
         <v>-15</v>
@@ -8377,7 +8372,7 @@
         <v>60</v>
       </c>
       <c r="H66" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="I66" t="n">
         <v>-15</v>
@@ -8386,7 +8381,7 @@
         <v>60</v>
       </c>
       <c r="K66" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L66" t="n">
         <v>-20</v>
@@ -8395,7 +8390,7 @@
         <v>70</v>
       </c>
       <c r="N66" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="O66" t="n">
         <v>-20</v>
@@ -8404,7 +8399,7 @@
         <v>70</v>
       </c>
       <c r="Q66" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="R66" t="n">
         <v>-17</v>
@@ -8413,7 +8408,7 @@
         <v>65</v>
       </c>
       <c r="T66" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="U66" t="n">
         <v>-20</v>
@@ -8422,7 +8417,7 @@
         <v>60</v>
       </c>
       <c r="W66" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="X66" t="n">
         <v>-20</v>
@@ -8431,7 +8426,7 @@
         <v>65</v>
       </c>
       <c r="Z66" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AA66" t="n">
         <v>-20</v>
@@ -8440,7 +8435,7 @@
         <v>65</v>
       </c>
       <c r="AC66" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AD66" t="n">
         <v>-20</v>
@@ -8449,15 +8444,15 @@
         <v>65</v>
       </c>
       <c r="AF66" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B67" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C67" t="n">
         <v>-17</v>
@@ -8466,7 +8461,7 @@
         <v>70</v>
       </c>
       <c r="E67" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F67" t="n">
         <v>-17</v>
@@ -8475,7 +8470,7 @@
         <v>70</v>
       </c>
       <c r="H67" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="I67" t="n">
         <v>-17</v>
@@ -8484,7 +8479,7 @@
         <v>70</v>
       </c>
       <c r="K67" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L67" t="n">
         <v>-15</v>
@@ -8493,7 +8488,7 @@
         <v>70</v>
       </c>
       <c r="N67" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O67" t="n">
         <v>-15</v>
@@ -8502,7 +8497,7 @@
         <v>70</v>
       </c>
       <c r="Q67" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="R67" t="n">
         <v>-17</v>
@@ -8511,7 +8506,7 @@
         <v>60</v>
       </c>
       <c r="T67" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="U67" t="n">
         <v>-17</v>
@@ -8520,7 +8515,7 @@
         <v>60</v>
       </c>
       <c r="W67" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="X67" t="n">
         <v>-17</v>
@@ -8529,7 +8524,7 @@
         <v>90</v>
       </c>
       <c r="Z67" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AA67" t="n">
         <v>-17</v>
@@ -8538,7 +8533,7 @@
         <v>90</v>
       </c>
       <c r="AC67" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AD67" t="n">
         <v>-17</v>
@@ -8547,113 +8542,113 @@
         <v>90</v>
       </c>
       <c r="AF67" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B68" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C68" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D68" t="n">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="E68" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F68" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G68" t="n">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="H68" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I68" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J68" t="n">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="K68" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L68" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M68" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="N68" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O68" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P68" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="Q68" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="R68" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="S68" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="T68" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="U68" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="V68" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="W68" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="X68" t="n">
         <v>16</v>
       </c>
       <c r="Y68" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="Z68" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="AA68" t="n">
         <v>16</v>
       </c>
       <c r="AB68" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AC68" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="AD68" t="n">
         <v>16</v>
       </c>
       <c r="AE68" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AF68" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B69" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C69" t="n">
         <v>17</v>
@@ -8662,7 +8657,7 @@
         <v>75</v>
       </c>
       <c r="E69" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="F69" t="n">
         <v>17</v>
@@ -8671,7 +8666,7 @@
         <v>75</v>
       </c>
       <c r="H69" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="I69" t="n">
         <v>17</v>
@@ -8680,7 +8675,7 @@
         <v>75</v>
       </c>
       <c r="K69" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L69" t="n">
         <v>17</v>
@@ -8689,7 +8684,7 @@
         <v>85</v>
       </c>
       <c r="N69" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="O69" t="n">
         <v>17</v>
@@ -8698,7 +8693,7 @@
         <v>85</v>
       </c>
       <c r="Q69" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="R69" t="n">
         <v>17</v>
@@ -8707,7 +8702,7 @@
         <v>80</v>
       </c>
       <c r="T69" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="U69" t="n">
         <v>17</v>
@@ -8716,7 +8711,7 @@
         <v>80</v>
       </c>
       <c r="W69" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="X69" t="n">
         <v>17</v>
@@ -8725,7 +8720,7 @@
         <v>65</v>
       </c>
       <c r="Z69" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="AA69" t="n">
         <v>17</v>
@@ -8734,7 +8729,7 @@
         <v>65</v>
       </c>
       <c r="AC69" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="AD69" t="n">
         <v>17</v>
@@ -8743,7 +8738,7 @@
         <v>65</v>
       </c>
       <c r="AF69" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="70">
@@ -8754,7 +8749,7 @@
         <v>231</v>
       </c>
       <c r="C70" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D70" t="n">
         <v>90</v>
@@ -8763,7 +8758,7 @@
         <v>232</v>
       </c>
       <c r="F70" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G70" t="n">
         <v>90</v>
@@ -8772,7 +8767,7 @@
         <v>232</v>
       </c>
       <c r="I70" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J70" t="n">
         <v>90</v>
@@ -8784,7 +8779,7 @@
         <v>16</v>
       </c>
       <c r="M70" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="N70" t="s">
         <v>233</v>
@@ -8793,7 +8788,7 @@
         <v>16</v>
       </c>
       <c r="P70" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="Q70" t="s">
         <v>233</v>
@@ -8802,25 +8797,25 @@
         <v>16</v>
       </c>
       <c r="S70" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="T70" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="U70" t="n">
         <v>16</v>
       </c>
       <c r="V70" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="W70" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="X70" t="n">
         <v>16</v>
       </c>
       <c r="Y70" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="Z70" t="s">
         <v>233</v>
@@ -8829,7 +8824,7 @@
         <v>16</v>
       </c>
       <c r="AB70" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AC70" t="s">
         <v>233</v>
@@ -8838,7 +8833,7 @@
         <v>16</v>
       </c>
       <c r="AE70" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AF70" t="s">
         <v>233</v>
@@ -8846,177 +8841,177 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B71" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C71" t="n">
-        <v>-3</v>
+        <v>-2.5</v>
       </c>
       <c r="D71" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E71" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F71" t="n">
-        <v>-4.2</v>
+        <v>-2.5</v>
       </c>
       <c r="G71" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="H71" t="s">
         <v>237</v>
       </c>
       <c r="I71" t="n">
-        <v>-4.5</v>
+        <v>-2.5</v>
       </c>
       <c r="J71" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="K71" t="s">
+        <v>237</v>
+      </c>
+      <c r="L71" t="n">
+        <v>-4</v>
+      </c>
+      <c r="M71" t="n">
+        <v>50</v>
+      </c>
+      <c r="N71" t="s">
         <v>238</v>
       </c>
-      <c r="L71" t="n">
+      <c r="O71" t="n">
+        <v>-4</v>
+      </c>
+      <c r="P71" t="n">
+        <v>50</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>238</v>
+      </c>
+      <c r="R71" t="n">
         <v>-4.2</v>
       </c>
-      <c r="M71" t="n">
-        <v>60</v>
-      </c>
-      <c r="N71" t="s">
+      <c r="S71" t="n">
+        <v>60</v>
+      </c>
+      <c r="T71" t="s">
         <v>239</v>
       </c>
-      <c r="O71" t="n">
+      <c r="U71" t="n">
         <v>-4.2</v>
       </c>
-      <c r="P71" t="n">
-        <v>60</v>
-      </c>
-      <c r="Q71" t="s">
+      <c r="V71" t="n">
+        <v>60</v>
+      </c>
+      <c r="W71" t="s">
         <v>239</v>
       </c>
-      <c r="R71" t="n">
-        <v>-5.5</v>
-      </c>
-      <c r="S71" t="n">
-        <v>50</v>
-      </c>
-      <c r="T71" t="s">
+      <c r="X71" t="n">
+        <v>-4.2</v>
+      </c>
+      <c r="Y71" t="n">
+        <v>45</v>
+      </c>
+      <c r="Z71" t="s">
         <v>240</v>
       </c>
-      <c r="U71" t="n">
-        <v>-4</v>
-      </c>
-      <c r="V71" t="n">
-        <v>50</v>
-      </c>
-      <c r="W71" t="s">
-        <v>241</v>
-      </c>
-      <c r="X71" t="n">
-        <v>-4</v>
-      </c>
-      <c r="Y71" t="n">
-        <v>40</v>
-      </c>
-      <c r="Z71" t="s">
-        <v>242</v>
-      </c>
       <c r="AA71" t="n">
-        <v>-4</v>
+        <v>-4.2</v>
       </c>
       <c r="AB71" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AC71" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="AD71" t="n">
-        <v>-4</v>
+        <v>-4.2</v>
       </c>
       <c r="AE71" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AF71" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B72" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C72" t="n">
-        <v>-4.5</v>
+        <v>-2.5</v>
       </c>
       <c r="D72" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E72" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F72" t="n">
         <v>-2.5</v>
       </c>
       <c r="G72" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="H72" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="I72" t="n">
         <v>-2.5</v>
       </c>
       <c r="J72" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="K72" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="L72" t="n">
-        <v>-2.5</v>
+        <v>-3.8</v>
       </c>
       <c r="M72" t="n">
         <v>75</v>
       </c>
       <c r="N72" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="O72" t="n">
-        <v>-2.5</v>
+        <v>-3.8</v>
       </c>
       <c r="P72" t="n">
         <v>75</v>
       </c>
       <c r="Q72" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="R72" t="n">
+        <v>-2.7</v>
+      </c>
+      <c r="S72" t="n">
+        <v>85</v>
+      </c>
+      <c r="T72" t="s">
+        <v>246</v>
+      </c>
+      <c r="U72" t="n">
+        <v>-2.7</v>
+      </c>
+      <c r="V72" t="n">
+        <v>85</v>
+      </c>
+      <c r="W72" t="s">
+        <v>246</v>
+      </c>
+      <c r="X72" t="n">
         <v>-4</v>
       </c>
-      <c r="S72" t="n">
-        <v>70</v>
-      </c>
-      <c r="T72" t="s">
-        <v>249</v>
-      </c>
-      <c r="U72" t="n">
-        <v>-4</v>
-      </c>
-      <c r="V72" t="n">
-        <v>70</v>
-      </c>
-      <c r="W72" t="s">
-        <v>249</v>
-      </c>
-      <c r="X72" t="n">
-        <v>-2.5</v>
-      </c>
       <c r="Y72" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="Z72" t="s">
         <v>247</v>
@@ -9025,27 +9020,27 @@
         <v>-4</v>
       </c>
       <c r="AB72" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AC72" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="AD72" t="n">
         <v>-4</v>
       </c>
       <c r="AE72" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AF72" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B73" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C73" t="n">
         <v>-4</v>
@@ -9054,7 +9049,7 @@
         <v>85</v>
       </c>
       <c r="E73" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F73" t="n">
         <v>-4</v>
@@ -9063,7 +9058,7 @@
         <v>85</v>
       </c>
       <c r="H73" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I73" t="n">
         <v>-4</v>
@@ -9072,7 +9067,7 @@
         <v>85</v>
       </c>
       <c r="K73" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="L73" t="n">
         <v>-4</v>
@@ -9081,7 +9076,7 @@
         <v>85</v>
       </c>
       <c r="N73" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="O73" t="n">
         <v>-4</v>
@@ -9090,7 +9085,7 @@
         <v>85</v>
       </c>
       <c r="Q73" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="R73" t="n">
         <v>-4</v>
@@ -9099,7 +9094,7 @@
         <v>60</v>
       </c>
       <c r="T73" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="U73" t="n">
         <v>-4</v>
@@ -9108,7 +9103,7 @@
         <v>60</v>
       </c>
       <c r="W73" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="X73" t="n">
         <v>-4</v>
@@ -9117,7 +9112,7 @@
         <v>75</v>
       </c>
       <c r="Z73" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AA73" t="n">
         <v>-4</v>
@@ -9126,7 +9121,7 @@
         <v>75</v>
       </c>
       <c r="AC73" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AD73" t="n">
         <v>-4</v>
@@ -9135,15 +9130,15 @@
         <v>75</v>
       </c>
       <c r="AF73" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B74" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C74" t="n">
         <v>-0.2</v>
@@ -9152,7 +9147,7 @@
         <v>50</v>
       </c>
       <c r="E74" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F74" t="n">
         <v>-0.2</v>
@@ -9161,7 +9156,7 @@
         <v>50</v>
       </c>
       <c r="H74" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="I74" t="n">
         <v>-0.2</v>
@@ -9170,7 +9165,7 @@
         <v>50</v>
       </c>
       <c r="K74" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="L74" t="n">
         <v>0.1</v>
@@ -9179,7 +9174,7 @@
         <v>55</v>
       </c>
       <c r="N74" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="O74" t="n">
         <v>0.1</v>
@@ -9188,7 +9183,7 @@
         <v>55</v>
       </c>
       <c r="Q74" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="R74" t="n">
         <v>0</v>
@@ -9197,7 +9192,7 @@
         <v>60</v>
       </c>
       <c r="T74" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="U74" t="n">
         <v>0</v>
@@ -9206,7 +9201,7 @@
         <v>60</v>
       </c>
       <c r="W74" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="X74" t="n">
         <v>0</v>
@@ -9215,7 +9210,7 @@
         <v>55</v>
       </c>
       <c r="Z74" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="AA74" t="n">
         <v>0</v>
@@ -9224,7 +9219,7 @@
         <v>55</v>
       </c>
       <c r="AC74" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="AD74" t="n">
         <v>0</v>
@@ -9233,15 +9228,15 @@
         <v>55</v>
       </c>
       <c r="AF74" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B75" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C75" t="n">
         <v>0.1</v>
@@ -9250,7 +9245,7 @@
         <v>65</v>
       </c>
       <c r="E75" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F75" t="n">
         <v>0.1</v>
@@ -9259,7 +9254,7 @@
         <v>65</v>
       </c>
       <c r="H75" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="I75" t="n">
         <v>0.1</v>
@@ -9268,7 +9263,7 @@
         <v>65</v>
       </c>
       <c r="K75" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="L75" t="n">
         <v>-0.4</v>
@@ -9277,7 +9272,7 @@
         <v>60</v>
       </c>
       <c r="N75" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="O75" t="n">
         <v>-0.4</v>
@@ -9286,7 +9281,7 @@
         <v>60</v>
       </c>
       <c r="Q75" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="R75" t="n">
         <v>0</v>
@@ -9295,7 +9290,7 @@
         <v>60</v>
       </c>
       <c r="T75" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="U75" t="n">
         <v>0</v>
@@ -9304,7 +9299,7 @@
         <v>60</v>
       </c>
       <c r="W75" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="X75" t="n">
         <v>0.1</v>
@@ -9336,10 +9331,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B76" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C76" t="n">
         <v>0.1</v>
@@ -9348,7 +9343,7 @@
         <v>65</v>
       </c>
       <c r="E76" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F76" t="n">
         <v>0.1</v>
@@ -9357,7 +9352,7 @@
         <v>65</v>
       </c>
       <c r="H76" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="I76" t="n">
         <v>0.1</v>
@@ -9366,7 +9361,7 @@
         <v>65</v>
       </c>
       <c r="K76" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="L76" t="n">
         <v>0.1</v>
@@ -9375,7 +9370,7 @@
         <v>65</v>
       </c>
       <c r="N76" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="O76" t="n">
         <v>0.1</v>
@@ -9384,7 +9379,7 @@
         <v>65</v>
       </c>
       <c r="Q76" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="R76" t="n">
         <v>0.3</v>
@@ -9434,10 +9429,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B77" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C77" t="n">
         <v>0.5</v>
@@ -9446,7 +9441,7 @@
         <v>60</v>
       </c>
       <c r="E77" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F77" t="n">
         <v>0.5</v>
@@ -9455,7 +9450,7 @@
         <v>60</v>
       </c>
       <c r="H77" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="I77" t="n">
         <v>0.5</v>
@@ -9464,7 +9459,7 @@
         <v>60</v>
       </c>
       <c r="K77" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L77" t="n">
         <v>0.5</v>
@@ -9473,7 +9468,7 @@
         <v>65</v>
       </c>
       <c r="N77" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="O77" t="n">
         <v>0.5</v>
@@ -9482,7 +9477,7 @@
         <v>65</v>
       </c>
       <c r="Q77" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="R77" t="n">
         <v>0.2</v>
@@ -9491,7 +9486,7 @@
         <v>55</v>
       </c>
       <c r="T77" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="U77" t="n">
         <v>0.2</v>
@@ -9500,7 +9495,7 @@
         <v>55</v>
       </c>
       <c r="W77" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="X77" t="n">
         <v>0</v>
@@ -9509,7 +9504,7 @@
         <v>60</v>
       </c>
       <c r="Z77" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AA77" t="n">
         <v>0</v>
@@ -9518,7 +9513,7 @@
         <v>60</v>
       </c>
       <c r="AC77" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AD77" t="n">
         <v>0</v>
@@ -9527,15 +9522,15 @@
         <v>60</v>
       </c>
       <c r="AF77" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B78" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C78" t="n">
         <v>0.7</v>
@@ -9544,7 +9539,7 @@
         <v>85</v>
       </c>
       <c r="E78" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F78" t="n">
         <v>0.7</v>
@@ -9553,7 +9548,7 @@
         <v>85</v>
       </c>
       <c r="H78" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="I78" t="n">
         <v>0.7</v>
@@ -9562,7 +9557,7 @@
         <v>85</v>
       </c>
       <c r="K78" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L78" t="n">
         <v>0.7</v>
@@ -9571,7 +9566,7 @@
         <v>85</v>
       </c>
       <c r="N78" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="O78" t="n">
         <v>0.7</v>
@@ -9580,7 +9575,7 @@
         <v>85</v>
       </c>
       <c r="Q78" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="R78" t="n">
         <v>0.8</v>
@@ -9589,7 +9584,7 @@
         <v>85</v>
       </c>
       <c r="T78" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="U78" t="n">
         <v>0.8</v>
@@ -9598,7 +9593,7 @@
         <v>85</v>
       </c>
       <c r="W78" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="X78" t="n">
         <v>0.8</v>
@@ -9607,7 +9602,7 @@
         <v>85</v>
       </c>
       <c r="Z78" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AA78" t="n">
         <v>0.8</v>
@@ -9616,7 +9611,7 @@
         <v>85</v>
       </c>
       <c r="AC78" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AD78" t="n">
         <v>0.8</v>
@@ -9625,15 +9620,15 @@
         <v>85</v>
       </c>
       <c r="AF78" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B79" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C79" t="n">
         <v>0.8</v>
@@ -9642,7 +9637,7 @@
         <v>85</v>
       </c>
       <c r="E79" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F79" t="n">
         <v>0.8</v>
@@ -9651,7 +9646,7 @@
         <v>85</v>
       </c>
       <c r="H79" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="I79" t="n">
         <v>0.8</v>
@@ -9660,7 +9655,7 @@
         <v>85</v>
       </c>
       <c r="K79" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="L79" t="n">
         <v>0.7</v>
@@ -9669,7 +9664,7 @@
         <v>85</v>
       </c>
       <c r="N79" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="O79" t="n">
         <v>0.7</v>
@@ -9678,7 +9673,7 @@
         <v>85</v>
       </c>
       <c r="Q79" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="R79" t="n">
         <v>0.8</v>
@@ -9687,7 +9682,7 @@
         <v>90</v>
       </c>
       <c r="T79" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="U79" t="n">
         <v>0.8</v>
@@ -9696,7 +9691,7 @@
         <v>90</v>
       </c>
       <c r="W79" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="X79" t="n">
         <v>0.8</v>
@@ -9705,7 +9700,7 @@
         <v>85</v>
       </c>
       <c r="Z79" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AA79" t="n">
         <v>0.8</v>
@@ -9714,7 +9709,7 @@
         <v>85</v>
       </c>
       <c r="AC79" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AD79" t="n">
         <v>0.8</v>
@@ -9723,15 +9718,15 @@
         <v>85</v>
       </c>
       <c r="AF79" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B80" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C80" t="n">
         <v>2.7</v>
@@ -9740,7 +9735,7 @@
         <v>70</v>
       </c>
       <c r="E80" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F80" t="n">
         <v>2.7</v>
@@ -9749,7 +9744,7 @@
         <v>70</v>
       </c>
       <c r="H80" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="I80" t="n">
         <v>2.7</v>
@@ -9758,7 +9753,7 @@
         <v>70</v>
       </c>
       <c r="K80" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="L80" t="n">
         <v>2.3</v>
@@ -9767,7 +9762,7 @@
         <v>75</v>
       </c>
       <c r="N80" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="O80" t="n">
         <v>2.3</v>
@@ -9776,7 +9771,7 @@
         <v>75</v>
       </c>
       <c r="Q80" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="R80" t="n">
         <v>2.3</v>
@@ -9785,7 +9780,7 @@
         <v>75</v>
       </c>
       <c r="T80" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="U80" t="n">
         <v>2.3</v>
@@ -9794,7 +9789,7 @@
         <v>75</v>
       </c>
       <c r="W80" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="X80" t="n">
         <v>1.8</v>
@@ -9803,7 +9798,7 @@
         <v>85</v>
       </c>
       <c r="Z80" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="AA80" t="n">
         <v>1.8</v>
@@ -9812,7 +9807,7 @@
         <v>85</v>
       </c>
       <c r="AC80" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="AD80" t="n">
         <v>1.8</v>
@@ -9821,15 +9816,15 @@
         <v>85</v>
       </c>
       <c r="AF80" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B81" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C81" t="n">
         <v>2.5</v>
@@ -9838,7 +9833,7 @@
         <v>85</v>
       </c>
       <c r="E81" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F81" t="n">
         <v>2.5</v>
@@ -9847,7 +9842,7 @@
         <v>85</v>
       </c>
       <c r="H81" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I81" t="n">
         <v>2.5</v>
@@ -9856,7 +9851,7 @@
         <v>85</v>
       </c>
       <c r="K81" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="L81" t="n">
         <v>2.7</v>
@@ -9865,7 +9860,7 @@
         <v>80</v>
       </c>
       <c r="N81" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="O81" t="n">
         <v>2.7</v>
@@ -9874,7 +9869,7 @@
         <v>80</v>
       </c>
       <c r="Q81" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="R81" t="n">
         <v>2.5</v>
@@ -9883,7 +9878,7 @@
         <v>90</v>
       </c>
       <c r="T81" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="U81" t="n">
         <v>2.5</v>
@@ -9892,7 +9887,7 @@
         <v>90</v>
       </c>
       <c r="W81" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="X81" t="n">
         <v>2.3</v>
@@ -9901,7 +9896,7 @@
         <v>80</v>
       </c>
       <c r="Z81" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="AA81" t="n">
         <v>2.3</v>
@@ -9910,7 +9905,7 @@
         <v>80</v>
       </c>
       <c r="AC81" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="AD81" t="n">
         <v>2.3</v>
@@ -9919,15 +9914,15 @@
         <v>80</v>
       </c>
       <c r="AF81" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B82" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C82" t="n">
         <v>2.7</v>
@@ -9936,7 +9931,7 @@
         <v>90</v>
       </c>
       <c r="E82" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F82" t="n">
         <v>2.7</v>
@@ -9945,7 +9940,7 @@
         <v>90</v>
       </c>
       <c r="H82" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="I82" t="n">
         <v>2.7</v>
@@ -9954,7 +9949,7 @@
         <v>90</v>
       </c>
       <c r="K82" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="L82" t="n">
         <v>2.7</v>
@@ -9963,7 +9958,7 @@
         <v>90</v>
       </c>
       <c r="N82" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="O82" t="n">
         <v>2.7</v>
@@ -9972,7 +9967,7 @@
         <v>90</v>
       </c>
       <c r="Q82" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="R82" t="n">
         <v>2.7</v>
@@ -9981,7 +9976,7 @@
         <v>85</v>
       </c>
       <c r="T82" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="U82" t="n">
         <v>2.7</v>
@@ -9990,7 +9985,7 @@
         <v>85</v>
       </c>
       <c r="W82" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="X82" t="n">
         <v>2.7</v>
@@ -9999,7 +9994,7 @@
         <v>90</v>
       </c>
       <c r="Z82" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="AA82" t="n">
         <v>2.7</v>
@@ -10008,7 +10003,7 @@
         <v>90</v>
       </c>
       <c r="AC82" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="AD82" t="n">
         <v>2.7</v>
@@ -10017,15 +10012,15 @@
         <v>90</v>
       </c>
       <c r="AF82" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B83" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C83" t="n">
         <v>0.7</v>
@@ -10034,7 +10029,7 @@
         <v>80</v>
       </c>
       <c r="E83" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F83" t="n">
         <v>0.7</v>
@@ -10043,7 +10038,7 @@
         <v>80</v>
       </c>
       <c r="H83" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="I83" t="n">
         <v>0.7</v>
@@ -10052,7 +10047,7 @@
         <v>80</v>
       </c>
       <c r="K83" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="L83" t="n">
         <v>0.6</v>
@@ -10079,7 +10074,7 @@
         <v>85</v>
       </c>
       <c r="T83" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="U83" t="n">
         <v>0.7</v>
@@ -10088,7 +10083,7 @@
         <v>85</v>
       </c>
       <c r="W83" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="X83" t="n">
         <v>0.6</v>
@@ -10120,10 +10115,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B84" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C84" t="n">
         <v>0.6</v>
@@ -10132,7 +10127,7 @@
         <v>75</v>
       </c>
       <c r="E84" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F84" t="n">
         <v>0.6</v>
@@ -10141,7 +10136,7 @@
         <v>75</v>
       </c>
       <c r="H84" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I84" t="n">
         <v>0.6</v>
@@ -10150,7 +10145,7 @@
         <v>75</v>
       </c>
       <c r="K84" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="L84" t="n">
         <v>0.5</v>
@@ -10177,7 +10172,7 @@
         <v>65</v>
       </c>
       <c r="T84" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="U84" t="n">
         <v>0.7</v>
@@ -10186,7 +10181,7 @@
         <v>65</v>
       </c>
       <c r="W84" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="X84" t="n">
         <v>0.6</v>
@@ -10195,7 +10190,7 @@
         <v>75</v>
       </c>
       <c r="Z84" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="AA84" t="n">
         <v>0.6</v>
@@ -10204,7 +10199,7 @@
         <v>75</v>
       </c>
       <c r="AC84" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="AD84" t="n">
         <v>0.6</v>
@@ -10213,15 +10208,15 @@
         <v>75</v>
       </c>
       <c r="AF84" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B85" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C85" t="n">
         <v>0.6</v>
@@ -10257,7 +10252,7 @@
         <v>85</v>
       </c>
       <c r="N85" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="O85" t="n">
         <v>0.7</v>
@@ -10266,7 +10261,7 @@
         <v>85</v>
       </c>
       <c r="Q85" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="R85" t="n">
         <v>0.4</v>
@@ -10316,10 +10311,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B86" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C86" t="n">
         <v>0.3</v>
@@ -10414,10 +10409,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B87" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C87" t="n">
         <v>0</v>
@@ -10471,7 +10466,7 @@
         <v>50</v>
       </c>
       <c r="T87" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="U87" t="n">
         <v>0.3</v>
@@ -10480,7 +10475,7 @@
         <v>50</v>
       </c>
       <c r="W87" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="X87" t="n">
         <v>0</v>
@@ -10512,10 +10507,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B88" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C88" t="n">
         <v>0</v>
@@ -10524,7 +10519,7 @@
         <v>55</v>
       </c>
       <c r="E88" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F88" t="n">
         <v>0</v>
@@ -10533,7 +10528,7 @@
         <v>55</v>
       </c>
       <c r="H88" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -10542,7 +10537,7 @@
         <v>55</v>
       </c>
       <c r="K88" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="L88" t="n">
         <v>0</v>
@@ -10551,7 +10546,7 @@
         <v>65</v>
       </c>
       <c r="N88" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="O88" t="n">
         <v>0</v>
@@ -10560,7 +10555,7 @@
         <v>65</v>
       </c>
       <c r="Q88" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="R88" t="n">
         <v>0</v>
@@ -10569,7 +10564,7 @@
         <v>65</v>
       </c>
       <c r="T88" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="U88" t="n">
         <v>0</v>
@@ -10578,7 +10573,7 @@
         <v>65</v>
       </c>
       <c r="W88" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="X88" t="n">
         <v>0</v>
@@ -10587,7 +10582,7 @@
         <v>60</v>
       </c>
       <c r="Z88" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AA88" t="n">
         <v>0</v>
@@ -10596,7 +10591,7 @@
         <v>60</v>
       </c>
       <c r="AC88" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AD88" t="n">
         <v>0</v>
@@ -10605,15 +10600,15 @@
         <v>60</v>
       </c>
       <c r="AF88" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B89" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C89" t="n">
         <v>0.2</v>
@@ -10622,7 +10617,7 @@
         <v>45</v>
       </c>
       <c r="E89" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F89" t="n">
         <v>0.2</v>
@@ -10631,7 +10626,7 @@
         <v>45</v>
       </c>
       <c r="H89" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I89" t="n">
         <v>0.2</v>
@@ -10640,7 +10635,7 @@
         <v>45</v>
       </c>
       <c r="K89" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="L89" t="n">
         <v>0.2</v>
@@ -10708,10 +10703,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B90" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C90" t="n">
         <v>0.2</v>
@@ -10806,10 +10801,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B91" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C91" t="n">
         <v>0.5</v>
@@ -10904,10 +10899,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B92" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C92" t="n">
         <v>0.1</v>
@@ -10916,7 +10911,7 @@
         <v>55</v>
       </c>
       <c r="E92" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F92" t="n">
         <v>0.1</v>
@@ -10925,7 +10920,7 @@
         <v>55</v>
       </c>
       <c r="H92" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="I92" t="n">
         <v>0.1</v>
@@ -10934,7 +10929,7 @@
         <v>55</v>
       </c>
       <c r="K92" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="L92" t="n">
         <v>0.2</v>
@@ -10961,7 +10956,7 @@
         <v>65</v>
       </c>
       <c r="T92" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="U92" t="n">
         <v>0.1</v>
@@ -10970,7 +10965,7 @@
         <v>65</v>
       </c>
       <c r="W92" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="X92" t="n">
         <v>0.2</v>
@@ -11002,10 +10997,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B93" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C93" t="n">
         <v>0.3</v>
@@ -11100,10 +11095,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B94" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C94" t="n">
         <v>0.2</v>
@@ -11198,10 +11193,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B95" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C95" t="n">
         <v>-0.1</v>
@@ -11210,7 +11205,7 @@
         <v>60</v>
       </c>
       <c r="E95" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F95" t="n">
         <v>-0.1</v>
@@ -11219,7 +11214,7 @@
         <v>60</v>
       </c>
       <c r="H95" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="I95" t="n">
         <v>-0.1</v>
@@ -11228,7 +11223,7 @@
         <v>60</v>
       </c>
       <c r="K95" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="L95" t="n">
         <v>-0.1</v>
@@ -11237,7 +11232,7 @@
         <v>60</v>
       </c>
       <c r="N95" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="O95" t="n">
         <v>-0.1</v>
@@ -11246,7 +11241,7 @@
         <v>60</v>
       </c>
       <c r="Q95" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="R95" t="n">
         <v>-0.1</v>
@@ -11255,7 +11250,7 @@
         <v>65</v>
       </c>
       <c r="T95" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="U95" t="n">
         <v>-0.1</v>
@@ -11264,7 +11259,7 @@
         <v>65</v>
       </c>
       <c r="W95" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="X95" t="n">
         <v>-0.1</v>
@@ -11273,7 +11268,7 @@
         <v>60</v>
       </c>
       <c r="Z95" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="AA95" t="n">
         <v>-0.1</v>
@@ -11282,7 +11277,7 @@
         <v>60</v>
       </c>
       <c r="AC95" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="AD95" t="n">
         <v>-0.1</v>
@@ -11291,15 +11286,15 @@
         <v>60</v>
       </c>
       <c r="AF95" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B96" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C96" t="n">
         <v>-0.1</v>
@@ -11308,7 +11303,7 @@
         <v>65</v>
       </c>
       <c r="E96" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F96" t="n">
         <v>-0.1</v>
@@ -11317,7 +11312,7 @@
         <v>65</v>
       </c>
       <c r="H96" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="I96" t="n">
         <v>-0.1</v>
@@ -11326,7 +11321,7 @@
         <v>65</v>
       </c>
       <c r="K96" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="L96" t="n">
         <v>-0.1</v>
@@ -11335,7 +11330,7 @@
         <v>65</v>
       </c>
       <c r="N96" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="O96" t="n">
         <v>-0.1</v>
@@ -11344,7 +11339,7 @@
         <v>65</v>
       </c>
       <c r="Q96" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="R96" t="n">
         <v>-0.2</v>
@@ -11353,7 +11348,7 @@
         <v>65</v>
       </c>
       <c r="T96" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="U96" t="n">
         <v>-0.2</v>
@@ -11362,7 +11357,7 @@
         <v>65</v>
       </c>
       <c r="W96" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="X96" t="n">
         <v>-0.2</v>
@@ -11371,7 +11366,7 @@
         <v>65</v>
       </c>
       <c r="Z96" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="AA96" t="n">
         <v>-0.2</v>
@@ -11380,7 +11375,7 @@
         <v>65</v>
       </c>
       <c r="AC96" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="AD96" t="n">
         <v>-0.2</v>
@@ -11389,43 +11384,43 @@
         <v>65</v>
       </c>
       <c r="AF96" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
+        <v>328</v>
+      </c>
+      <c r="B97" t="s">
+        <v>329</v>
+      </c>
+      <c r="C97" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D97" t="n">
+        <v>75</v>
+      </c>
+      <c r="E97" t="s">
+        <v>60</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G97" t="n">
+        <v>70</v>
+      </c>
+      <c r="H97" t="s">
         <v>330</v>
       </c>
-      <c r="B97" t="s">
+      <c r="I97" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J97" t="n">
+        <v>70</v>
+      </c>
+      <c r="K97" t="s">
         <v>331</v>
       </c>
-      <c r="C97" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D97" t="n">
-        <v>75</v>
-      </c>
-      <c r="E97" t="s">
-        <v>60</v>
-      </c>
-      <c r="F97" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G97" t="n">
-        <v>70</v>
-      </c>
-      <c r="H97" t="s">
-        <v>332</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="J97" t="n">
-        <v>70</v>
-      </c>
-      <c r="K97" t="s">
-        <v>333</v>
-      </c>
       <c r="L97" t="n">
         <v>0.1</v>
       </c>
@@ -11433,7 +11428,7 @@
         <v>65</v>
       </c>
       <c r="N97" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="O97" t="n">
         <v>-0.1</v>
@@ -11442,7 +11437,7 @@
         <v>60</v>
       </c>
       <c r="Q97" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="R97" t="n">
         <v>0.1</v>
@@ -11451,7 +11446,7 @@
         <v>65</v>
       </c>
       <c r="T97" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="U97" t="n">
         <v>0.1</v>
@@ -11460,7 +11455,7 @@
         <v>65</v>
       </c>
       <c r="W97" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="X97" t="n">
         <v>0.1</v>
@@ -11492,10 +11487,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B98" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C98" t="n">
         <v>0.1</v>
@@ -11504,7 +11499,7 @@
         <v>65</v>
       </c>
       <c r="E98" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F98" t="n">
         <v>0.1</v>
@@ -11513,7 +11508,7 @@
         <v>65</v>
       </c>
       <c r="H98" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="I98" t="n">
         <v>0.1</v>
@@ -11522,7 +11517,7 @@
         <v>65</v>
       </c>
       <c r="K98" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="L98" t="n">
         <v>0.1</v>
@@ -11531,7 +11526,7 @@
         <v>65</v>
       </c>
       <c r="N98" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="O98" t="n">
         <v>0.1</v>
@@ -11540,7 +11535,7 @@
         <v>65</v>
       </c>
       <c r="Q98" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="R98" t="n">
         <v>0.2</v>
@@ -11567,7 +11562,7 @@
         <v>65</v>
       </c>
       <c r="Z98" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="AA98" t="n">
         <v>0.1</v>
@@ -11576,7 +11571,7 @@
         <v>65</v>
       </c>
       <c r="AC98" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="AD98" t="n">
         <v>0.1</v>
@@ -11585,15 +11580,15 @@
         <v>65</v>
       </c>
       <c r="AF98" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B99" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C99" t="n">
         <v>0.2</v>
@@ -11688,10 +11683,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B100" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C100" t="n">
         <v>0.1</v>
@@ -11700,7 +11695,7 @@
         <v>70</v>
       </c>
       <c r="E100" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F100" t="n">
         <v>0.1</v>
@@ -11709,7 +11704,7 @@
         <v>70</v>
       </c>
       <c r="H100" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="I100" t="n">
         <v>0.1</v>
@@ -11718,7 +11713,7 @@
         <v>70</v>
       </c>
       <c r="K100" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="L100" t="n">
         <v>0.1</v>
@@ -11727,7 +11722,7 @@
         <v>70</v>
       </c>
       <c r="N100" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="O100" t="n">
         <v>0.1</v>
@@ -11736,7 +11731,7 @@
         <v>70</v>
       </c>
       <c r="Q100" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="R100" t="n">
         <v>0.1</v>
@@ -11745,7 +11740,7 @@
         <v>70</v>
       </c>
       <c r="T100" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="U100" t="n">
         <v>0.1</v>
@@ -11754,7 +11749,7 @@
         <v>70</v>
       </c>
       <c r="W100" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="X100" t="n">
         <v>0.2</v>
@@ -11786,10 +11781,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B101" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C101" t="n">
         <v>0.1</v>
@@ -11798,7 +11793,7 @@
         <v>70</v>
       </c>
       <c r="E101" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F101" t="n">
         <v>0.1</v>
@@ -11807,7 +11802,7 @@
         <v>70</v>
       </c>
       <c r="H101" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="I101" t="n">
         <v>0.1</v>
@@ -11816,7 +11811,7 @@
         <v>70</v>
       </c>
       <c r="K101" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="L101" t="n">
         <v>0</v>
@@ -11825,7 +11820,7 @@
         <v>65</v>
       </c>
       <c r="N101" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="O101" t="n">
         <v>0</v>
@@ -11834,7 +11829,7 @@
         <v>65</v>
       </c>
       <c r="Q101" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="R101" t="n">
         <v>0.1</v>
@@ -11843,7 +11838,7 @@
         <v>65</v>
       </c>
       <c r="T101" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="U101" t="n">
         <v>0.1</v>
@@ -11852,7 +11847,7 @@
         <v>65</v>
       </c>
       <c r="W101" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="X101" t="n">
         <v>0.1</v>
@@ -11861,7 +11856,7 @@
         <v>65</v>
       </c>
       <c r="Z101" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="AA101" t="n">
         <v>0.1</v>
@@ -11870,7 +11865,7 @@
         <v>65</v>
       </c>
       <c r="AC101" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="AD101" t="n">
         <v>0.1</v>
@@ -11879,15 +11874,15 @@
         <v>65</v>
       </c>
       <c r="AF101" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B102" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C102" t="n">
         <v>0</v>
@@ -11923,7 +11918,7 @@
         <v>80</v>
       </c>
       <c r="N102" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="O102" t="n">
         <v>0</v>
@@ -11932,7 +11927,7 @@
         <v>80</v>
       </c>
       <c r="Q102" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="R102" t="n">
         <v>-0.1</v>
@@ -11941,7 +11936,7 @@
         <v>65</v>
       </c>
       <c r="T102" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="U102" t="n">
         <v>-0.1</v>
@@ -11950,7 +11945,7 @@
         <v>65</v>
       </c>
       <c r="W102" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="X102" t="n">
         <v>0.1</v>
@@ -11959,7 +11954,7 @@
         <v>65</v>
       </c>
       <c r="Z102" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="AA102" t="n">
         <v>0.1</v>
@@ -11968,7 +11963,7 @@
         <v>65</v>
       </c>
       <c r="AC102" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="AD102" t="n">
         <v>0.1</v>
@@ -11977,15 +11972,15 @@
         <v>65</v>
       </c>
       <c r="AF102" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B103" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C103" t="n">
         <v>0.1</v>
@@ -11994,7 +11989,7 @@
         <v>80</v>
       </c>
       <c r="E103" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F103" t="n">
         <v>0.1</v>
@@ -12003,7 +11998,7 @@
         <v>80</v>
       </c>
       <c r="H103" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="I103" t="n">
         <v>0.1</v>
@@ -12012,7 +12007,7 @@
         <v>80</v>
       </c>
       <c r="K103" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="L103" t="n">
         <v>0.1</v>
@@ -12021,7 +12016,7 @@
         <v>65</v>
       </c>
       <c r="N103" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="O103" t="n">
         <v>0.1</v>
@@ -12030,7 +12025,7 @@
         <v>65</v>
       </c>
       <c r="Q103" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="R103" t="n">
         <v>0.1</v>
@@ -12039,7 +12034,7 @@
         <v>70</v>
       </c>
       <c r="T103" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="U103" t="n">
         <v>0.1</v>
@@ -12048,7 +12043,7 @@
         <v>70</v>
       </c>
       <c r="W103" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="X103" t="n">
         <v>0.1</v>
@@ -12057,7 +12052,7 @@
         <v>75</v>
       </c>
       <c r="Z103" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="AA103" t="n">
         <v>0.1</v>
@@ -12066,7 +12061,7 @@
         <v>75</v>
       </c>
       <c r="AC103" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="AD103" t="n">
         <v>0.1</v>
@@ -12075,15 +12070,15 @@
         <v>75</v>
       </c>
       <c r="AF103" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B104" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C104" t="n">
         <v>0.1</v>
@@ -12092,7 +12087,7 @@
         <v>65</v>
       </c>
       <c r="E104" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F104" t="n">
         <v>0.1</v>
@@ -12101,7 +12096,7 @@
         <v>65</v>
       </c>
       <c r="H104" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="I104" t="n">
         <v>0.1</v>
@@ -12110,7 +12105,7 @@
         <v>65</v>
       </c>
       <c r="K104" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="L104" t="n">
         <v>-0.1</v>
@@ -12119,7 +12114,7 @@
         <v>65</v>
       </c>
       <c r="N104" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="O104" t="n">
         <v>-0.1</v>
@@ -12128,7 +12123,7 @@
         <v>65</v>
       </c>
       <c r="Q104" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="R104" t="n">
         <v>0.1</v>
@@ -12178,10 +12173,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B105" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C105" t="n">
         <v>0.1</v>
@@ -12190,7 +12185,7 @@
         <v>65</v>
       </c>
       <c r="E105" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F105" t="n">
         <v>0.1</v>
@@ -12199,7 +12194,7 @@
         <v>65</v>
       </c>
       <c r="H105" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="I105" t="n">
         <v>0.1</v>
@@ -12208,7 +12203,7 @@
         <v>65</v>
       </c>
       <c r="K105" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="L105" t="n">
         <v>0.1</v>
@@ -12217,7 +12212,7 @@
         <v>80</v>
       </c>
       <c r="N105" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="O105" t="n">
         <v>0.1</v>
@@ -12226,7 +12221,7 @@
         <v>80</v>
       </c>
       <c r="Q105" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="R105" t="n">
         <v>0.1</v>
@@ -12235,7 +12230,7 @@
         <v>80</v>
       </c>
       <c r="T105" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="U105" t="n">
         <v>0.1</v>
@@ -12244,7 +12239,7 @@
         <v>80</v>
       </c>
       <c r="W105" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="X105" t="n">
         <v>0.1</v>
@@ -12276,10 +12271,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B106" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C106" t="n">
         <v>0.1</v>
@@ -12288,7 +12283,7 @@
         <v>70</v>
       </c>
       <c r="E106" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F106" t="n">
         <v>0.1</v>
@@ -12297,7 +12292,7 @@
         <v>70</v>
       </c>
       <c r="H106" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="I106" t="n">
         <v>0.1</v>
@@ -12306,7 +12301,7 @@
         <v>70</v>
       </c>
       <c r="K106" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="L106" t="n">
         <v>0.1</v>
@@ -12315,7 +12310,7 @@
         <v>75</v>
       </c>
       <c r="N106" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="O106" t="n">
         <v>0.1</v>
@@ -12324,7 +12319,7 @@
         <v>75</v>
       </c>
       <c r="Q106" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="R106" t="n">
         <v>0.1</v>
@@ -12333,7 +12328,7 @@
         <v>75</v>
       </c>
       <c r="T106" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="U106" t="n">
         <v>0.1</v>
@@ -12342,7 +12337,7 @@
         <v>75</v>
       </c>
       <c r="W106" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="X106" t="n">
         <v>0.1</v>
@@ -12351,7 +12346,7 @@
         <v>75</v>
       </c>
       <c r="Z106" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="AA106" t="n">
         <v>0.1</v>
@@ -12360,7 +12355,7 @@
         <v>75</v>
       </c>
       <c r="AC106" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="AD106" t="n">
         <v>0.1</v>
@@ -12369,15 +12364,15 @@
         <v>75</v>
       </c>
       <c r="AF106" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B107" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C107" t="n">
         <v>-0.1</v>
@@ -12386,7 +12381,7 @@
         <v>65</v>
       </c>
       <c r="E107" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F107" t="n">
         <v>-0.1</v>
@@ -12395,7 +12390,7 @@
         <v>65</v>
       </c>
       <c r="H107" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="I107" t="n">
         <v>-0.1</v>
@@ -12404,7 +12399,7 @@
         <v>65</v>
       </c>
       <c r="K107" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="L107" t="n">
         <v>-0.1</v>
@@ -12413,7 +12408,7 @@
         <v>75</v>
       </c>
       <c r="N107" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="O107" t="n">
         <v>-0.1</v>
@@ -12422,7 +12417,7 @@
         <v>75</v>
       </c>
       <c r="Q107" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="R107" t="n">
         <v>-0.1</v>
@@ -12431,7 +12426,7 @@
         <v>65</v>
       </c>
       <c r="T107" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="U107" t="n">
         <v>-0.1</v>
@@ -12440,7 +12435,7 @@
         <v>65</v>
       </c>
       <c r="W107" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="X107" t="n">
         <v>0</v>
@@ -12449,7 +12444,7 @@
         <v>65</v>
       </c>
       <c r="Z107" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="AA107" t="n">
         <v>0</v>
@@ -12458,7 +12453,7 @@
         <v>65</v>
       </c>
       <c r="AC107" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="AD107" t="n">
         <v>0</v>
@@ -12467,15 +12462,15 @@
         <v>65</v>
       </c>
       <c r="AF107" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B108" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C108" t="n">
         <v>0</v>
@@ -12484,7 +12479,7 @@
         <v>65</v>
       </c>
       <c r="E108" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F108" t="n">
         <v>0</v>
@@ -12493,7 +12488,7 @@
         <v>65</v>
       </c>
       <c r="H108" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
@@ -12502,7 +12497,7 @@
         <v>65</v>
       </c>
       <c r="K108" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="L108" t="n">
         <v>-0.1</v>
@@ -12511,7 +12506,7 @@
         <v>75</v>
       </c>
       <c r="N108" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="O108" t="n">
         <v>-0.1</v>
@@ -12520,7 +12515,7 @@
         <v>75</v>
       </c>
       <c r="Q108" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="R108" t="n">
         <v>0</v>
@@ -12547,7 +12542,7 @@
         <v>65</v>
       </c>
       <c r="Z108" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="AA108" t="n">
         <v>-0.1</v>
@@ -12556,7 +12551,7 @@
         <v>65</v>
       </c>
       <c r="AC108" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="AD108" t="n">
         <v>-0.1</v>
@@ -12565,15 +12560,15 @@
         <v>65</v>
       </c>
       <c r="AF108" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B109" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C109" t="n">
         <v>-0.1</v>
@@ -12582,7 +12577,7 @@
         <v>75</v>
       </c>
       <c r="E109" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F109" t="n">
         <v>-0.1</v>
@@ -12591,7 +12586,7 @@
         <v>75</v>
       </c>
       <c r="H109" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="I109" t="n">
         <v>-0.1</v>
@@ -12600,7 +12595,7 @@
         <v>75</v>
       </c>
       <c r="K109" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="L109" t="n">
         <v>0</v>
@@ -12609,7 +12604,7 @@
         <v>65</v>
       </c>
       <c r="N109" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="O109" t="n">
         <v>0</v>
@@ -12618,7 +12613,7 @@
         <v>65</v>
       </c>
       <c r="Q109" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="R109" t="n">
         <v>0</v>
@@ -12627,7 +12622,7 @@
         <v>65</v>
       </c>
       <c r="T109" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="U109" t="n">
         <v>0</v>
@@ -12636,7 +12631,7 @@
         <v>65</v>
       </c>
       <c r="W109" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="X109" t="n">
         <v>0</v>
@@ -12645,7 +12640,7 @@
         <v>65</v>
       </c>
       <c r="Z109" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="AA109" t="n">
         <v>0</v>
@@ -12654,7 +12649,7 @@
         <v>65</v>
       </c>
       <c r="AC109" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="AD109" t="n">
         <v>0</v>
@@ -12663,15 +12658,15 @@
         <v>65</v>
       </c>
       <c r="AF109" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B110" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C110" t="n">
         <v>0.2</v>
@@ -12766,10 +12761,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B111" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C111" t="n">
         <v>0.1</v>
@@ -12841,7 +12836,7 @@
         <v>65</v>
       </c>
       <c r="Z111" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="AA111" t="n">
         <v>0.1</v>
@@ -12850,7 +12845,7 @@
         <v>65</v>
       </c>
       <c r="AC111" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="AD111" t="n">
         <v>0.1</v>
@@ -12859,15 +12854,15 @@
         <v>65</v>
       </c>
       <c r="AF111" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B112" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C112" t="n">
         <v>0.2</v>
@@ -12921,7 +12916,7 @@
         <v>70</v>
       </c>
       <c r="T112" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="U112" t="n">
         <v>0.1</v>
@@ -12930,7 +12925,7 @@
         <v>70</v>
       </c>
       <c r="W112" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="X112" t="n">
         <v>0.1</v>
@@ -12962,10 +12957,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B113" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C113" t="n">
         <v>0.1</v>
@@ -12974,7 +12969,7 @@
         <v>65</v>
       </c>
       <c r="E113" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F113" t="n">
         <v>0.1</v>
@@ -12983,7 +12978,7 @@
         <v>65</v>
       </c>
       <c r="H113" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="I113" t="n">
         <v>0.1</v>
@@ -12992,7 +12987,7 @@
         <v>65</v>
       </c>
       <c r="K113" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="L113" t="n">
         <v>0.1</v>
@@ -13001,7 +12996,7 @@
         <v>65</v>
       </c>
       <c r="N113" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="O113" t="n">
         <v>0.1</v>
@@ -13010,7 +13005,7 @@
         <v>65</v>
       </c>
       <c r="Q113" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="R113" t="n">
         <v>0.1</v>
@@ -13019,7 +13014,7 @@
         <v>65</v>
       </c>
       <c r="T113" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="U113" t="n">
         <v>0.1</v>
@@ -13028,7 +13023,7 @@
         <v>65</v>
       </c>
       <c r="W113" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="X113" t="n">
         <v>0.1</v>
@@ -13037,7 +13032,7 @@
         <v>65</v>
       </c>
       <c r="Z113" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="AA113" t="n">
         <v>0.1</v>
@@ -13046,7 +13041,7 @@
         <v>65</v>
       </c>
       <c r="AC113" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="AD113" t="n">
         <v>0.1</v>
@@ -13055,15 +13050,15 @@
         <v>65</v>
       </c>
       <c r="AF113" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B114" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C114" t="n">
         <v>0.1</v>
@@ -13072,7 +13067,7 @@
         <v>75</v>
       </c>
       <c r="E114" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="F114" t="n">
         <v>0.1</v>
@@ -13081,7 +13076,7 @@
         <v>75</v>
       </c>
       <c r="H114" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="I114" t="n">
         <v>0.1</v>
@@ -13090,7 +13085,7 @@
         <v>75</v>
       </c>
       <c r="K114" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="L114" t="n">
         <v>0.1</v>
@@ -13099,7 +13094,7 @@
         <v>75</v>
       </c>
       <c r="N114" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="O114" t="n">
         <v>0.1</v>
@@ -13108,7 +13103,7 @@
         <v>75</v>
       </c>
       <c r="Q114" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="R114" t="n">
         <v>0.1</v>
@@ -13117,7 +13112,7 @@
         <v>75</v>
       </c>
       <c r="T114" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="U114" t="n">
         <v>0.1</v>
@@ -13126,7 +13121,7 @@
         <v>75</v>
       </c>
       <c r="W114" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="X114" t="n">
         <v>0.1</v>
@@ -13135,7 +13130,7 @@
         <v>70</v>
       </c>
       <c r="Z114" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AA114" t="n">
         <v>0.1</v>
@@ -13144,7 +13139,7 @@
         <v>70</v>
       </c>
       <c r="AC114" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AD114" t="n">
         <v>0.1</v>
@@ -13153,15 +13148,15 @@
         <v>70</v>
       </c>
       <c r="AF114" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B115" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C115" t="n">
         <v>0.1</v>
@@ -13215,7 +13210,7 @@
         <v>70</v>
       </c>
       <c r="T115" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="U115" t="n">
         <v>0.1</v>
@@ -13224,7 +13219,7 @@
         <v>70</v>
       </c>
       <c r="W115" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="X115" t="n">
         <v>0.1</v>
@@ -13233,7 +13228,7 @@
         <v>65</v>
       </c>
       <c r="Z115" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="AA115" t="n">
         <v>0.1</v>
@@ -13242,7 +13237,7 @@
         <v>65</v>
       </c>
       <c r="AC115" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="AD115" t="n">
         <v>0.1</v>
@@ -13251,15 +13246,15 @@
         <v>65</v>
       </c>
       <c r="AF115" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B116" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C116" t="n">
         <v>-0.1</v>
@@ -13268,7 +13263,7 @@
         <v>65</v>
       </c>
       <c r="E116" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F116" t="n">
         <v>-0.1</v>
@@ -13277,7 +13272,7 @@
         <v>65</v>
       </c>
       <c r="H116" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="I116" t="n">
         <v>-0.1</v>
@@ -13286,7 +13281,7 @@
         <v>65</v>
       </c>
       <c r="K116" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="L116" t="n">
         <v>-0.2</v>
@@ -13295,7 +13290,7 @@
         <v>75</v>
       </c>
       <c r="N116" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="O116" t="n">
         <v>-0.2</v>
@@ -13304,7 +13299,7 @@
         <v>75</v>
       </c>
       <c r="Q116" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="R116" t="n">
         <v>-0.2</v>
@@ -13313,7 +13308,7 @@
         <v>65</v>
       </c>
       <c r="T116" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="U116" t="n">
         <v>-0.2</v>
@@ -13322,7 +13317,7 @@
         <v>65</v>
       </c>
       <c r="W116" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="X116" t="n">
         <v>-0.2</v>
@@ -13331,7 +13326,7 @@
         <v>75</v>
       </c>
       <c r="Z116" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="AA116" t="n">
         <v>-0.2</v>
@@ -13340,7 +13335,7 @@
         <v>75</v>
       </c>
       <c r="AC116" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="AD116" t="n">
         <v>-0.2</v>
@@ -13349,15 +13344,15 @@
         <v>75</v>
       </c>
       <c r="AF116" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B117" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C117" t="n">
         <v>-0.1</v>
@@ -13366,7 +13361,7 @@
         <v>75</v>
       </c>
       <c r="E117" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F117" t="n">
         <v>-0.1</v>
@@ -13375,7 +13370,7 @@
         <v>75</v>
       </c>
       <c r="H117" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="I117" t="n">
         <v>-0.1</v>
@@ -13384,7 +13379,7 @@
         <v>75</v>
       </c>
       <c r="K117" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="L117" t="n">
         <v>0.1</v>
@@ -13393,7 +13388,7 @@
         <v>65</v>
       </c>
       <c r="N117" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="O117" t="n">
         <v>0.1</v>
@@ -13402,7 +13397,7 @@
         <v>65</v>
       </c>
       <c r="Q117" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="R117" t="n">
         <v>-0.2</v>
@@ -13411,7 +13406,7 @@
         <v>65</v>
       </c>
       <c r="T117" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="U117" t="n">
         <v>-0.2</v>
@@ -13420,7 +13415,7 @@
         <v>65</v>
       </c>
       <c r="W117" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="X117" t="n">
         <v>-0.1</v>
@@ -13429,7 +13424,7 @@
         <v>65</v>
       </c>
       <c r="Z117" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="AA117" t="n">
         <v>-0.1</v>
@@ -13438,7 +13433,7 @@
         <v>65</v>
       </c>
       <c r="AC117" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="AD117" t="n">
         <v>-0.1</v>
@@ -13447,15 +13442,15 @@
         <v>65</v>
       </c>
       <c r="AF117" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B118" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C118" t="n">
         <v>-0.1</v>
@@ -13464,7 +13459,7 @@
         <v>85</v>
       </c>
       <c r="E118" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F118" t="n">
         <v>-0.1</v>
@@ -13473,7 +13468,7 @@
         <v>85</v>
       </c>
       <c r="H118" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="I118" t="n">
         <v>-0.1</v>
@@ -13482,7 +13477,7 @@
         <v>85</v>
       </c>
       <c r="K118" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="L118" t="n">
         <v>-0.1</v>
@@ -13491,7 +13486,7 @@
         <v>85</v>
       </c>
       <c r="N118" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="O118" t="n">
         <v>-0.1</v>
@@ -13500,7 +13495,7 @@
         <v>85</v>
       </c>
       <c r="Q118" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="R118" t="n">
         <v>-0.1</v>
@@ -13509,7 +13504,7 @@
         <v>75</v>
       </c>
       <c r="T118" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="U118" t="n">
         <v>-0.1</v>
@@ -13518,7 +13513,7 @@
         <v>75</v>
       </c>
       <c r="W118" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="X118" t="n">
         <v>-0.1</v>
@@ -13527,7 +13522,7 @@
         <v>75</v>
       </c>
       <c r="Z118" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="AA118" t="n">
         <v>-0.1</v>
@@ -13536,7 +13531,7 @@
         <v>75</v>
       </c>
       <c r="AC118" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="AD118" t="n">
         <v>-0.1</v>
@@ -13545,15 +13540,15 @@
         <v>75</v>
       </c>
       <c r="AF118" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B119" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C119" t="n">
         <v>-0.1</v>
@@ -13562,7 +13557,7 @@
         <v>65</v>
       </c>
       <c r="E119" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F119" t="n">
         <v>-0.1</v>
@@ -13571,7 +13566,7 @@
         <v>65</v>
       </c>
       <c r="H119" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="I119" t="n">
         <v>-0.1</v>
@@ -13580,7 +13575,7 @@
         <v>65</v>
       </c>
       <c r="K119" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="L119" t="n">
         <v>-0.2</v>
@@ -13589,7 +13584,7 @@
         <v>75</v>
       </c>
       <c r="N119" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="O119" t="n">
         <v>-0.2</v>
@@ -13598,7 +13593,7 @@
         <v>75</v>
       </c>
       <c r="Q119" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="R119" t="n">
         <v>-0.1</v>
@@ -13607,7 +13602,7 @@
         <v>65</v>
       </c>
       <c r="T119" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="U119" t="n">
         <v>-0.1</v>
@@ -13616,7 +13611,7 @@
         <v>65</v>
       </c>
       <c r="W119" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="X119" t="n">
         <v>-0.2</v>
@@ -13625,7 +13620,7 @@
         <v>65</v>
       </c>
       <c r="Z119" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="AA119" t="n">
         <v>-0.2</v>
@@ -13634,7 +13629,7 @@
         <v>65</v>
       </c>
       <c r="AC119" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="AD119" t="n">
         <v>-0.2</v>
@@ -13643,15 +13638,15 @@
         <v>65</v>
       </c>
       <c r="AF119" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B120" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C120" t="n">
         <v>-0.1</v>
@@ -13660,7 +13655,7 @@
         <v>70</v>
       </c>
       <c r="E120" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="F120" t="n">
         <v>-0.1</v>
@@ -13669,7 +13664,7 @@
         <v>70</v>
       </c>
       <c r="H120" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I120" t="n">
         <v>-0.1</v>
@@ -13678,7 +13673,7 @@
         <v>70</v>
       </c>
       <c r="K120" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="L120" t="n">
         <v>0</v>
@@ -13687,7 +13682,7 @@
         <v>65</v>
       </c>
       <c r="N120" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="O120" t="n">
         <v>0</v>
@@ -13696,7 +13691,7 @@
         <v>65</v>
       </c>
       <c r="Q120" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="R120" t="n">
         <v>-0.1</v>
@@ -13705,7 +13700,7 @@
         <v>65</v>
       </c>
       <c r="T120" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="U120" t="n">
         <v>-0.1</v>
@@ -13714,7 +13709,7 @@
         <v>65</v>
       </c>
       <c r="W120" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="X120" t="n">
         <v>-0.2</v>
@@ -13723,7 +13718,7 @@
         <v>70</v>
       </c>
       <c r="Z120" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="AA120" t="n">
         <v>-0.2</v>
@@ -13732,7 +13727,7 @@
         <v>70</v>
       </c>
       <c r="AC120" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="AD120" t="n">
         <v>-0.2</v>
@@ -13741,15 +13736,15 @@
         <v>70</v>
       </c>
       <c r="AF120" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B121" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C121" t="n">
         <v>-0.1</v>
@@ -13758,7 +13753,7 @@
         <v>85</v>
       </c>
       <c r="E121" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F121" t="n">
         <v>-0.1</v>
@@ -13767,7 +13762,7 @@
         <v>85</v>
       </c>
       <c r="H121" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="I121" t="n">
         <v>-0.1</v>
@@ -13776,7 +13771,7 @@
         <v>85</v>
       </c>
       <c r="K121" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="L121" t="n">
         <v>-0.1</v>
@@ -13785,7 +13780,7 @@
         <v>75</v>
       </c>
       <c r="N121" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="O121" t="n">
         <v>-0.1</v>
@@ -13794,7 +13789,7 @@
         <v>75</v>
       </c>
       <c r="Q121" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="R121" t="n">
         <v>-0.2</v>
@@ -13803,7 +13798,7 @@
         <v>85</v>
       </c>
       <c r="T121" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="U121" t="n">
         <v>-0.2</v>
@@ -13812,7 +13807,7 @@
         <v>85</v>
       </c>
       <c r="W121" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="X121" t="n">
         <v>-0.1</v>
@@ -13821,7 +13816,7 @@
         <v>85</v>
       </c>
       <c r="Z121" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="AA121" t="n">
         <v>-0.1</v>
@@ -13830,7 +13825,7 @@
         <v>85</v>
       </c>
       <c r="AC121" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="AD121" t="n">
         <v>-0.1</v>
@@ -13839,15 +13834,15 @@
         <v>85</v>
       </c>
       <c r="AF121" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B122" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C122" t="n">
         <v>-0.1</v>
@@ -13856,7 +13851,7 @@
         <v>75</v>
       </c>
       <c r="E122" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F122" t="n">
         <v>-0.1</v>
@@ -13865,7 +13860,7 @@
         <v>75</v>
       </c>
       <c r="H122" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="I122" t="n">
         <v>-0.1</v>
@@ -13874,7 +13869,7 @@
         <v>75</v>
       </c>
       <c r="K122" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="L122" t="n">
         <v>-0.1</v>
@@ -13883,7 +13878,7 @@
         <v>75</v>
       </c>
       <c r="N122" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="O122" t="n">
         <v>-0.1</v>
@@ -13892,7 +13887,7 @@
         <v>75</v>
       </c>
       <c r="Q122" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="R122" t="n">
         <v>-0.1</v>
@@ -13901,7 +13896,7 @@
         <v>75</v>
       </c>
       <c r="T122" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="U122" t="n">
         <v>-0.1</v>
@@ -13910,7 +13905,7 @@
         <v>75</v>
       </c>
       <c r="W122" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="X122" t="n">
         <v>-0.1</v>
@@ -13919,7 +13914,7 @@
         <v>75</v>
       </c>
       <c r="Z122" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="AA122" t="n">
         <v>-0.1</v>
@@ -13928,7 +13923,7 @@
         <v>75</v>
       </c>
       <c r="AC122" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="AD122" t="n">
         <v>-0.1</v>
@@ -13937,15 +13932,15 @@
         <v>75</v>
       </c>
       <c r="AF122" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B123" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C123" t="n">
         <v>0.1</v>
@@ -13954,7 +13949,7 @@
         <v>65</v>
       </c>
       <c r="E123" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F123" t="n">
         <v>0.1</v>
@@ -13963,7 +13958,7 @@
         <v>65</v>
       </c>
       <c r="H123" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="I123" t="n">
         <v>0.1</v>
@@ -13972,7 +13967,7 @@
         <v>65</v>
       </c>
       <c r="K123" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="L123" t="n">
         <v>0.1</v>
@@ -13981,7 +13976,7 @@
         <v>65</v>
       </c>
       <c r="N123" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="O123" t="n">
         <v>0.1</v>
@@ -13990,7 +13985,7 @@
         <v>65</v>
       </c>
       <c r="Q123" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="R123" t="n">
         <v>0.1</v>
@@ -13999,7 +13994,7 @@
         <v>65</v>
       </c>
       <c r="T123" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="U123" t="n">
         <v>0.1</v>
@@ -14008,7 +14003,7 @@
         <v>65</v>
       </c>
       <c r="W123" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="X123" t="n">
         <v>0.1</v>
@@ -14017,7 +14012,7 @@
         <v>65</v>
       </c>
       <c r="Z123" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="AA123" t="n">
         <v>0.1</v>
@@ -14026,7 +14021,7 @@
         <v>65</v>
       </c>
       <c r="AC123" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="AD123" t="n">
         <v>0.1</v>
@@ -14035,15 +14030,15 @@
         <v>65</v>
       </c>
       <c r="AF123" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B124" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C124" t="n">
         <v>-0.1</v>
@@ -14052,7 +14047,7 @@
         <v>80</v>
       </c>
       <c r="E124" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F124" t="n">
         <v>-0.1</v>
@@ -14061,7 +14056,7 @@
         <v>80</v>
       </c>
       <c r="H124" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="I124" t="n">
         <v>-0.1</v>
@@ -14070,7 +14065,7 @@
         <v>80</v>
       </c>
       <c r="K124" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="L124" t="n">
         <v>-0.1</v>
@@ -14079,7 +14074,7 @@
         <v>75</v>
       </c>
       <c r="N124" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="O124" t="n">
         <v>-0.1</v>
@@ -14088,7 +14083,7 @@
         <v>75</v>
       </c>
       <c r="Q124" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="R124" t="n">
         <v>-0.1</v>
@@ -14097,7 +14092,7 @@
         <v>85</v>
       </c>
       <c r="T124" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="U124" t="n">
         <v>-0.1</v>
@@ -14106,7 +14101,7 @@
         <v>85</v>
       </c>
       <c r="W124" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="X124" t="n">
         <v>0.1</v>
@@ -14115,7 +14110,7 @@
         <v>65</v>
       </c>
       <c r="Z124" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="AA124" t="n">
         <v>0.1</v>
@@ -14124,7 +14119,7 @@
         <v>65</v>
       </c>
       <c r="AC124" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="AD124" t="n">
         <v>0.1</v>
@@ -14133,15 +14128,15 @@
         <v>65</v>
       </c>
       <c r="AF124" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B125" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C125" t="n">
         <v>0.2</v>
@@ -14236,10 +14231,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B126" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C126" t="n">
         <v>-0.1</v>
@@ -14248,7 +14243,7 @@
         <v>70</v>
       </c>
       <c r="E126" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="F126" t="n">
         <v>-0.1</v>
@@ -14257,7 +14252,7 @@
         <v>70</v>
       </c>
       <c r="H126" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I126" t="n">
         <v>-0.1</v>
@@ -14266,7 +14261,7 @@
         <v>70</v>
       </c>
       <c r="K126" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="L126" t="n">
         <v>-0.2</v>
@@ -14275,7 +14270,7 @@
         <v>60</v>
       </c>
       <c r="N126" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="O126" t="n">
         <v>-0.2</v>
@@ -14284,7 +14279,7 @@
         <v>60</v>
       </c>
       <c r="Q126" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="R126" t="n">
         <v>-0.1</v>
@@ -14293,7 +14288,7 @@
         <v>60</v>
       </c>
       <c r="T126" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="U126" t="n">
         <v>-0.1</v>
@@ -14302,7 +14297,7 @@
         <v>60</v>
       </c>
       <c r="W126" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="X126" t="n">
         <v>0.1</v>
@@ -14311,7 +14306,7 @@
         <v>55</v>
       </c>
       <c r="Z126" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="AA126" t="n">
         <v>0.1</v>
@@ -14320,7 +14315,7 @@
         <v>55</v>
       </c>
       <c r="AC126" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="AD126" t="n">
         <v>0.1</v>
@@ -14329,15 +14324,15 @@
         <v>55</v>
       </c>
       <c r="AF126" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B127" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C127" t="n">
         <v>-0.1</v>
@@ -14346,7 +14341,7 @@
         <v>70</v>
       </c>
       <c r="E127" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="F127" t="n">
         <v>-0.1</v>
@@ -14355,7 +14350,7 @@
         <v>70</v>
       </c>
       <c r="H127" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I127" t="n">
         <v>-0.1</v>
@@ -14364,7 +14359,7 @@
         <v>70</v>
       </c>
       <c r="K127" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="L127" t="n">
         <v>-0.1</v>
@@ -14373,7 +14368,7 @@
         <v>85</v>
       </c>
       <c r="N127" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="O127" t="n">
         <v>-0.1</v>
@@ -14382,7 +14377,7 @@
         <v>85</v>
       </c>
       <c r="Q127" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="R127" t="n">
         <v>0.1</v>
@@ -14391,7 +14386,7 @@
         <v>65</v>
       </c>
       <c r="T127" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="U127" t="n">
         <v>0.1</v>
@@ -14400,7 +14395,7 @@
         <v>65</v>
       </c>
       <c r="W127" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="X127" t="n">
         <v>-0.1</v>
@@ -14409,7 +14404,7 @@
         <v>65</v>
       </c>
       <c r="Z127" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="AA127" t="n">
         <v>-0.1</v>
@@ -14418,7 +14413,7 @@
         <v>65</v>
       </c>
       <c r="AC127" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="AD127" t="n">
         <v>-0.1</v>
@@ -14427,15 +14422,15 @@
         <v>65</v>
       </c>
       <c r="AF127" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B128" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C128" t="n">
         <v>-0.1</v>
@@ -14444,7 +14439,7 @@
         <v>65</v>
       </c>
       <c r="E128" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F128" t="n">
         <v>-0.1</v>
@@ -14453,7 +14448,7 @@
         <v>65</v>
       </c>
       <c r="H128" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="I128" t="n">
         <v>-0.1</v>
@@ -14462,7 +14457,7 @@
         <v>65</v>
       </c>
       <c r="K128" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="L128" t="n">
         <v>-0.2</v>
@@ -14471,7 +14466,7 @@
         <v>75</v>
       </c>
       <c r="N128" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="O128" t="n">
         <v>-0.2</v>
@@ -14480,7 +14475,7 @@
         <v>75</v>
       </c>
       <c r="Q128" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="R128" t="n">
         <v>-0.1</v>
@@ -14489,7 +14484,7 @@
         <v>65</v>
       </c>
       <c r="T128" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="U128" t="n">
         <v>-0.1</v>
@@ -14498,7 +14493,7 @@
         <v>65</v>
       </c>
       <c r="W128" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="X128" t="n">
         <v>-0.1</v>
@@ -14507,7 +14502,7 @@
         <v>70</v>
       </c>
       <c r="Z128" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="AA128" t="n">
         <v>-0.1</v>
@@ -14516,7 +14511,7 @@
         <v>70</v>
       </c>
       <c r="AC128" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="AD128" t="n">
         <v>-0.1</v>
@@ -14525,15 +14520,15 @@
         <v>70</v>
       </c>
       <c r="AF128" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B129" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C129" t="n">
         <v>-0.2</v>
@@ -14542,7 +14537,7 @@
         <v>75</v>
       </c>
       <c r="E129" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F129" t="n">
         <v>-0.2</v>
@@ -14551,7 +14546,7 @@
         <v>75</v>
       </c>
       <c r="H129" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I129" t="n">
         <v>-0.2</v>
@@ -14560,7 +14555,7 @@
         <v>75</v>
       </c>
       <c r="K129" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="L129" t="n">
         <v>-0.2</v>
@@ -14569,7 +14564,7 @@
         <v>85</v>
       </c>
       <c r="N129" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="O129" t="n">
         <v>-0.2</v>
@@ -14578,7 +14573,7 @@
         <v>85</v>
       </c>
       <c r="Q129" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="R129" t="n">
         <v>-0.2</v>
@@ -14587,7 +14582,7 @@
         <v>75</v>
       </c>
       <c r="T129" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="U129" t="n">
         <v>-0.2</v>
@@ -14596,7 +14591,7 @@
         <v>75</v>
       </c>
       <c r="W129" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="X129" t="n">
         <v>-0.1</v>
@@ -14605,7 +14600,7 @@
         <v>75</v>
       </c>
       <c r="Z129" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="AA129" t="n">
         <v>-0.1</v>
@@ -14614,7 +14609,7 @@
         <v>75</v>
       </c>
       <c r="AC129" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="AD129" t="n">
         <v>-0.1</v>
@@ -14623,15 +14618,15 @@
         <v>75</v>
       </c>
       <c r="AF129" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B130" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C130" t="n">
         <v>0.1</v>
@@ -14640,7 +14635,7 @@
         <v>65</v>
       </c>
       <c r="E130" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F130" t="n">
         <v>0.1</v>
@@ -14649,7 +14644,7 @@
         <v>65</v>
       </c>
       <c r="H130" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="I130" t="n">
         <v>0.1</v>
@@ -14658,7 +14653,7 @@
         <v>65</v>
       </c>
       <c r="K130" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="L130" t="n">
         <v>-0.1</v>
@@ -14667,7 +14662,7 @@
         <v>75</v>
       </c>
       <c r="N130" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="O130" t="n">
         <v>-0.1</v>
@@ -14676,7 +14671,7 @@
         <v>75</v>
       </c>
       <c r="Q130" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="R130" t="n">
         <v>-0.1</v>
@@ -14685,7 +14680,7 @@
         <v>65</v>
       </c>
       <c r="T130" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="U130" t="n">
         <v>-0.1</v>
@@ -14694,7 +14689,7 @@
         <v>65</v>
       </c>
       <c r="W130" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="X130" t="n">
         <v>-0.1</v>
@@ -14703,7 +14698,7 @@
         <v>65</v>
       </c>
       <c r="Z130" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="AA130" t="n">
         <v>-0.1</v>
@@ -14712,7 +14707,7 @@
         <v>65</v>
       </c>
       <c r="AC130" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="AD130" t="n">
         <v>-0.1</v>
@@ -14721,15 +14716,15 @@
         <v>65</v>
       </c>
       <c r="AF130" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B131" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C131" t="n">
         <v>-0.1</v>
@@ -14738,7 +14733,7 @@
         <v>50</v>
       </c>
       <c r="E131" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F131" t="n">
         <v>-0.1</v>
@@ -14747,7 +14742,7 @@
         <v>50</v>
       </c>
       <c r="H131" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="I131" t="n">
         <v>-0.1</v>
@@ -14756,7 +14751,7 @@
         <v>50</v>
       </c>
       <c r="K131" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L131" t="n">
         <v>0.1</v>
@@ -14765,7 +14760,7 @@
         <v>50</v>
       </c>
       <c r="N131" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="O131" t="n">
         <v>0.1</v>
@@ -14774,7 +14769,7 @@
         <v>50</v>
       </c>
       <c r="Q131" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="R131" t="n">
         <v>0.1</v>
@@ -14783,7 +14778,7 @@
         <v>60</v>
       </c>
       <c r="T131" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="U131" t="n">
         <v>-0.1</v>
@@ -14792,7 +14787,7 @@
         <v>55</v>
       </c>
       <c r="W131" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="X131" t="n">
         <v>-0.1</v>
@@ -14801,7 +14796,7 @@
         <v>65</v>
       </c>
       <c r="Z131" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="AA131" t="n">
         <v>-0.1</v>
@@ -14810,7 +14805,7 @@
         <v>65</v>
       </c>
       <c r="AC131" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="AD131" t="n">
         <v>-0.1</v>
@@ -14819,7 +14814,7 @@
         <v>65</v>
       </c>
       <c r="AF131" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
   </sheetData>
